--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\WRLang.UI\bin\Debug\net8.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16F095-A415-484C-AC27-FA3D9F27DCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605999C0-58B3-4048-BF44-043021E3BD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="617">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Roman 19256</t>
   </si>
   <si>
-    <t>Škoda 706RT CEM</t>
-  </si>
-  <si>
     <t>СК-4 Нива</t>
   </si>
   <si>
@@ -108,81 +105,18 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Trolleybus</t>
-  </si>
-  <si>
-    <t>Gravel</t>
-  </si>
-  <si>
-    <t>Garbage</t>
-  </si>
-  <si>
-    <t>Firetruck</t>
-  </si>
-  <si>
-    <t>Covered Truck</t>
-  </si>
-  <si>
-    <t>Farm vehicle</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
     <t>Bus</t>
   </si>
   <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Helicopters</t>
-  </si>
-  <si>
     <t>Metro</t>
   </si>
   <si>
     <t>Karosa ŠM 11</t>
   </si>
   <si>
-    <t>Tanker</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Crane</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Fridge</t>
-  </si>
-  <si>
-    <t>Construction Crane</t>
-  </si>
-  <si>
-    <t>Construction Excavator</t>
-  </si>
-  <si>
-    <t>Construction Mixer</t>
-  </si>
-  <si>
-    <t>Snowplow</t>
-  </si>
-  <si>
-    <t>Tractor</t>
-  </si>
-  <si>
-    <t>Ambulance</t>
-  </si>
-  <si>
     <t>Police Car</t>
   </si>
   <si>
@@ -204,9 +138,6 @@
     <t>Roman 8135</t>
   </si>
   <si>
-    <t>Škoda 706RT</t>
-  </si>
-  <si>
     <t>Škoda 706RT TN</t>
   </si>
   <si>
@@ -240,9 +171,6 @@
     <t>IFA W50 (лестница)</t>
   </si>
   <si>
-    <t>Škoda 706RT Hasičský vůz</t>
-  </si>
-  <si>
     <t>Tatra 815 Hasičská Cisterna</t>
   </si>
   <si>
@@ -252,21 +180,12 @@
     <t>Škoda 706MTS</t>
   </si>
   <si>
-    <t>Tatra 815 Popelář</t>
-  </si>
-  <si>
-    <t>LIAZ 100.121 Popelář</t>
-  </si>
-  <si>
     <t>Škoda 706RTK BOBR</t>
   </si>
   <si>
     <t>Avia A31 K-S1</t>
   </si>
   <si>
-    <t>БелАЗ-525</t>
-  </si>
-  <si>
     <t>An-12</t>
   </si>
   <si>
@@ -459,9 +378,6 @@
     <t>ЗИЛ-158</t>
   </si>
   <si>
-    <t xml:space="preserve">КамАЗ-5320 </t>
-  </si>
-  <si>
     <t>LIAZ 100 S1</t>
   </si>
   <si>
@@ -474,9 +390,6 @@
     <t>Roman 8135 FK</t>
   </si>
   <si>
-    <t>Škoda 706RT S1</t>
-  </si>
-  <si>
     <t>Tatra 138 S1</t>
   </si>
   <si>
@@ -513,9 +426,6 @@
     <t>Roman 19256 (прицеп)</t>
   </si>
   <si>
-    <t>Škoda 706RT Cisterna</t>
-  </si>
-  <si>
     <t>Tatra 138 Cisterna</t>
   </si>
   <si>
@@ -672,15 +582,6 @@
     <t>Wartburg 353</t>
   </si>
   <si>
-    <t>Avia A31 K-SI Fridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КамАЗ-5410 </t>
-  </si>
-  <si>
-    <t>Škoda 706RT TN Fridge</t>
-  </si>
-  <si>
     <t>UTRAK KT 50</t>
   </si>
   <si>
@@ -702,12 +603,6 @@
     <t>Tatra 815 UDS</t>
   </si>
   <si>
-    <t>Tatra 138 Míchač</t>
-  </si>
-  <si>
-    <t>Tatra 148 Míchač</t>
-  </si>
-  <si>
     <t>Tatra 815 AM168</t>
   </si>
   <si>
@@ -738,27 +633,6 @@
     <t>Zetor 7245</t>
   </si>
   <si>
-    <t>Nysa 522</t>
-  </si>
-  <si>
-    <t>РАФ-2203</t>
-  </si>
-  <si>
-    <t>РАФ-977</t>
-  </si>
-  <si>
-    <t>Škoda 1202 Ambulance</t>
-  </si>
-  <si>
-    <t>Škoda 1203 Ambulance</t>
-  </si>
-  <si>
-    <t>Avia A31 VB</t>
-  </si>
-  <si>
-    <t>Avia A21 VB</t>
-  </si>
-  <si>
     <t>Škoda 100 VB</t>
   </si>
   <si>
@@ -768,18 +642,12 @@
     <t>Škoda 1202 VB</t>
   </si>
   <si>
-    <t>Škoda 1203 VB</t>
-  </si>
-  <si>
     <t>IFA Trabi 601 VB</t>
   </si>
   <si>
     <t>Ifa-W50 covered</t>
   </si>
   <si>
-    <t>IFA W50 Covered</t>
-  </si>
-  <si>
     <t>K-B732 bus</t>
   </si>
   <si>
@@ -1095,9 +963,6 @@
     <t>U377 crane</t>
   </si>
   <si>
-    <t xml:space="preserve">U377 open </t>
-  </si>
-  <si>
     <t>U377 dumper</t>
   </si>
   <si>
@@ -1155,9 +1020,6 @@
     <t>FZK-A07 fire truck</t>
   </si>
   <si>
-    <t xml:space="preserve">W50 open </t>
-  </si>
-  <si>
     <t>W50 dumper</t>
   </si>
   <si>
@@ -1416,9 +1278,6 @@
     <t>Rmd 19-256 cistern</t>
   </si>
   <si>
-    <t>Excavator</t>
-  </si>
-  <si>
     <t>BZ-252 dumper</t>
   </si>
   <si>
@@ -1659,21 +1518,12 @@
     <t>Trabi 500</t>
   </si>
   <si>
-    <t>КамАЗ-5511</t>
-  </si>
-  <si>
     <t>Roman 8135 Vodní cisterna</t>
   </si>
   <si>
     <t>Roman 8135 Fekální vůz</t>
   </si>
   <si>
-    <t>Roman 19215 Popelář</t>
-  </si>
-  <si>
-    <t>IFA W50 Popelář</t>
-  </si>
-  <si>
     <t>Fi 2472</t>
   </si>
   <si>
@@ -1752,36 +1602,18 @@
     <t>Fiat 2472</t>
   </si>
   <si>
-    <t>Personnal</t>
-  </si>
-  <si>
     <t>Volvo 145</t>
   </si>
   <si>
     <t>Chevrolet 2300</t>
   </si>
   <si>
-    <t>Volvo 145 Police</t>
-  </si>
-  <si>
-    <t>Fiat 125 Police</t>
-  </si>
-  <si>
     <t>IFA Trabi 500 VB</t>
   </si>
   <si>
     <t>IMV 1600 Mikrobus</t>
   </si>
   <si>
-    <t>IMV 1600 VB</t>
-  </si>
-  <si>
-    <t>КамАЗ-5320 Popelář</t>
-  </si>
-  <si>
-    <t>Nysa 522 VB</t>
-  </si>
-  <si>
     <t>M152 motorcar</t>
   </si>
   <si>
@@ -1792,6 +1624,258 @@
   </si>
   <si>
     <t>Multicar M25 Valník</t>
+  </si>
+  <si>
+    <t>Skd 3T</t>
+  </si>
+  <si>
+    <t>Škoda 3Tr</t>
+  </si>
+  <si>
+    <t>Skd 6T</t>
+  </si>
+  <si>
+    <t>Škoda 6Tr</t>
+  </si>
+  <si>
+    <t>Skd 7T</t>
+  </si>
+  <si>
+    <t>Škoda 7Tr</t>
+  </si>
+  <si>
+    <t>Skd 8T</t>
+  </si>
+  <si>
+    <t>Škoda 8Tr</t>
+  </si>
+  <si>
+    <t>Krytý vůz</t>
+  </si>
+  <si>
+    <t>IFA W50 S plachtou</t>
+  </si>
+  <si>
+    <t>КамАЗ-5511 Sklápěč</t>
+  </si>
+  <si>
+    <t>Sklápěč</t>
+  </si>
+  <si>
+    <t>Valník</t>
+  </si>
+  <si>
+    <t>Avia A31 K-SI Mrazírenský</t>
+  </si>
+  <si>
+    <t>Mrazírenský</t>
+  </si>
+  <si>
+    <t>Vlak</t>
+  </si>
+  <si>
+    <t>Jeřáb</t>
+  </si>
+  <si>
+    <t>Cisterna</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Jeřáb</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Mrazírenský</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Sklápěč</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 Domíchávač</t>
+  </si>
+  <si>
+    <t>Domíchávač</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 Jeřáb</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 Sklápěč</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Sklápěč</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Domíchávač</t>
+  </si>
+  <si>
+    <t>КамАЗ-5410 Mrazírenský</t>
+  </si>
+  <si>
+    <t>КамАЗ-5410 Sklápěč</t>
+  </si>
+  <si>
+    <t>Hasičský</t>
+  </si>
+  <si>
+    <t>Škoda 706RT TN Mrazírenský</t>
+  </si>
+  <si>
+    <t>Škoda 706RT na cement</t>
+  </si>
+  <si>
+    <t>Farmářské vozidlo</t>
+  </si>
+  <si>
+    <t>КрАЗ-256Б Sklápěč</t>
+  </si>
+  <si>
+    <t>Tatra 138 Domíchávač</t>
+  </si>
+  <si>
+    <t>Tatra 148 Domíchávač</t>
+  </si>
+  <si>
+    <t>Škoda 1202 Sanitka</t>
+  </si>
+  <si>
+    <t>Sanitka</t>
+  </si>
+  <si>
+    <t>Kmenový přepravník</t>
+  </si>
+  <si>
+    <t>U377 open</t>
+  </si>
+  <si>
+    <t>Урал-377 Sklápěč</t>
+  </si>
+  <si>
+    <t>Škoda 1203 Sanitka</t>
+  </si>
+  <si>
+    <t>Barkas B1000 Sanitka</t>
+  </si>
+  <si>
+    <t>Nysa 522 Sanitka</t>
+  </si>
+  <si>
+    <t>РАФ-2203 Sanitka</t>
+  </si>
+  <si>
+    <t>Żuk A07 Sanitka</t>
+  </si>
+  <si>
+    <t>IFA W50 Sklápěč</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Sklápěč</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Mrazírenský</t>
+  </si>
+  <si>
+    <t>МАЗ-503 Sklápěč</t>
+  </si>
+  <si>
+    <t>МАЗ-504 na cement</t>
+  </si>
+  <si>
+    <t>РАФ-977 Sanitka</t>
+  </si>
+  <si>
+    <t>Osobní</t>
+  </si>
+  <si>
+    <t>Trolejbus</t>
+  </si>
+  <si>
+    <t>Pluh</t>
+  </si>
+  <si>
+    <t>Roman 8135 Mrazírenský</t>
+  </si>
+  <si>
+    <t>Roman 12215 Domíchávač</t>
+  </si>
+  <si>
+    <t>Roman 19256 na kulatinu</t>
+  </si>
+  <si>
+    <t>Roman 12215 na kulatinu</t>
+  </si>
+  <si>
+    <t>Roman 19215 Bagr</t>
+  </si>
+  <si>
+    <t>Bagr</t>
+  </si>
+  <si>
+    <t>Roman 19256 Mrazírenský</t>
+  </si>
+  <si>
+    <t>Roman 19256 na cement</t>
+  </si>
+  <si>
+    <t>БелАЗ-525 Sklápěč</t>
+  </si>
+  <si>
+    <t>IMV 2200D Sanitka</t>
+  </si>
+  <si>
+    <t>Škoda 1203 Vězeňský</t>
+  </si>
+  <si>
+    <t>Nysa 522 Vězeňský</t>
+  </si>
+  <si>
+    <t>Avia A21 Vězeňský</t>
+  </si>
+  <si>
+    <t>Avia A31 Vězeňský</t>
+  </si>
+  <si>
+    <t>Fiat 125 Policejní</t>
+  </si>
+  <si>
+    <t>IMV 1600 Vězeňský</t>
+  </si>
+  <si>
+    <t>Roman 19215 Popelářské</t>
+  </si>
+  <si>
+    <t>Popelářské</t>
+  </si>
+  <si>
+    <t>LIAZ 100.121 Popelářské</t>
+  </si>
+  <si>
+    <t>IFA W50 Popelářské</t>
+  </si>
+  <si>
+    <t>Letadla</t>
+  </si>
+  <si>
+    <t>Helikoptéry</t>
+  </si>
+  <si>
+    <t>Tatra 815 Popelářské</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Popelářské</t>
+  </si>
+  <si>
+    <t>Volvo 145 Policejní</t>
+  </si>
+  <si>
+    <t>Škoda 706RT S plachtou</t>
+  </si>
+  <si>
+    <t>Škoda 706RTH Cisterna</t>
+  </si>
+  <si>
+    <t>Škoda 706RTS</t>
+  </si>
+  <si>
+    <t>Škoda 706RTHP Hasičský vůz</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +2037,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{141762B2-7F1A-4858-8891-9C2571E99671}" name="Vehicles" displayName="Vehicles" ref="A1:D1048573" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D1048573" xr:uid="{141762B2-7F1A-4858-8891-9C2571E99671}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D320">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D324">
     <sortCondition ref="A1:A1048573"/>
   </sortState>
   <tableColumns count="4">
@@ -2229,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,16 +2329,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,10 +2346,10 @@
         <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2357,13 @@
         <v>5002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2371,13 @@
         <v>5004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,13 +2385,13 @@
         <v>5006</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,13 +2399,13 @@
         <v>5008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,13 +2413,13 @@
         <v>5010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,13 +2427,13 @@
         <v>5012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2441,13 @@
         <v>5014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2455,13 @@
         <v>5020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>542</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,9 +2469,12 @@
         <v>5024</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -2396,13 +2483,13 @@
         <v>5041</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,13 +2497,13 @@
         <v>5043</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,13 +2511,13 @@
         <v>5045</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,13 +2525,13 @@
         <v>5047</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2452,13 +2539,13 @@
         <v>5049</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,13 +2553,13 @@
         <v>5051</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,13 +2567,13 @@
         <v>5053</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,13 +2581,13 @@
         <v>5055</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,13 +2595,13 @@
         <v>5057</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,13 +2609,13 @@
         <v>5059</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>215</v>
+        <v>546</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,13 +2623,13 @@
         <v>5061</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2550,13 +2637,13 @@
         <v>5063</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,13 +2651,13 @@
         <v>5065</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,13 +2665,13 @@
         <v>5089</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2592,13 +2679,13 @@
         <v>5091</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2606,13 +2693,13 @@
         <v>5093</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,13 +2707,13 @@
         <v>5095</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,13 +2721,13 @@
         <v>5097</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2648,13 +2735,13 @@
         <v>5099</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,13 +2749,13 @@
         <v>5101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,13 +2763,13 @@
         <v>5103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,13 +2777,13 @@
         <v>5105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,13 +2791,13 @@
         <v>5107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,13 +2805,13 @@
         <v>5109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,13 +2819,13 @@
         <v>5111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,13 +2833,13 @@
         <v>5113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,13 +2847,13 @@
         <v>5144</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,13 +2861,13 @@
         <v>5148</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,13 +2875,13 @@
         <v>5152</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,13 +2889,13 @@
         <v>5154</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2903,13 @@
         <v>5155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,13 +2917,13 @@
         <v>5156</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>551</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>42</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,13 +2931,13 @@
         <v>5157</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>552</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,13 +2945,13 @@
         <v>5158</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>553</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,13 +2959,13 @@
         <v>5159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +2973,13 @@
         <v>5161</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,13 +2987,13 @@
         <v>5162</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,13 +3001,13 @@
         <v>5163</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>554</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,13 +3015,13 @@
         <v>5164</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>556</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>42</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,13 +3029,13 @@
         <v>5165</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
+        <v>557</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,13 +3043,13 @@
         <v>5166</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>558</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +3057,13 @@
         <v>5168</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,13 +3071,13 @@
         <v>5169</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +3085,13 @@
         <v>5170</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +3099,13 @@
         <v>5171</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>558</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +3113,13 @@
         <v>5172</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>144</v>
+        <v>559</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,13 +3127,13 @@
         <v>5173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,13 +3141,13 @@
         <v>5175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,13 +3155,13 @@
         <v>5176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,13 +3169,13 @@
         <v>5177</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>561</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,13 +3183,13 @@
         <v>5178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,13 +3197,13 @@
         <v>5179</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,13 +3211,13 @@
         <v>5181</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>613</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,13 +3225,13 @@
         <v>5182</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>162</v>
+        <v>614</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,13 +3239,13 @@
         <v>5183</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>615</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,13 +3253,13 @@
         <v>5184</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,13 +3267,13 @@
         <v>5185</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,13 +3281,13 @@
         <v>5186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>217</v>
+        <v>563</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,13 +3295,13 @@
         <v>5187</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,13 +3309,13 @@
         <v>5188</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>564</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,13 +3323,13 @@
         <v>5189</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,13 +3337,13 @@
         <v>5210</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,13 +3351,13 @@
         <v>5212</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>32</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,13 +3365,13 @@
         <v>5216</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>20</v>
+        <v>566</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,13 +3379,13 @@
         <v>5218</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,13 +3393,13 @@
         <v>5219</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,13 +3407,13 @@
         <v>5220</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,13 +3421,13 @@
         <v>5221</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,13 +3435,13 @@
         <v>5223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,13 +3449,13 @@
         <v>5224</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,13 +3463,13 @@
         <v>5225</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,13 +3477,13 @@
         <v>5226</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,13 +3491,13 @@
         <v>5227</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>225</v>
+        <v>567</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,13 +3505,13 @@
         <v>5228</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,13 +3519,13 @@
         <v>5230</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,13 +3533,13 @@
         <v>5231</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,13 +3547,13 @@
         <v>5232</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,13 +3561,13 @@
         <v>5233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>226</v>
+        <v>568</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,13 +3575,13 @@
         <v>5234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,13 +3589,13 @@
         <v>5235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,13 +3603,13 @@
         <v>5237</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,13 +3617,13 @@
         <v>5238</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,13 +3631,13 @@
         <v>5240</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,13 +3645,13 @@
         <v>5242</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,13 +3659,13 @@
         <v>5244</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>240</v>
+        <v>569</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,13 +3673,13 @@
         <v>5246</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +3687,13 @@
         <v>5247</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,13 +3701,13 @@
         <v>5249</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +3715,13 @@
         <v>5250</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,13 +3729,13 @@
         <v>5251</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,13 +3743,13 @@
         <v>5252</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,13 +3757,13 @@
         <v>5254</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>50</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,13 +3771,13 @@
         <v>5256</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>50</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,13 +3785,13 @@
         <v>5260</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>50</v>
+        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,13 +3799,13 @@
         <v>5264</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3813,13 @@
         <v>5272</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,13 +3827,13 @@
         <v>5274</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,13 +3841,13 @@
         <v>5275</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>356</v>
+        <v>572</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,13 +3855,13 @@
         <v>5276</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>64</v>
+        <v>573</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,13 +3869,13 @@
         <v>5277</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,13 +3883,13 @@
         <v>5278</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,13 +3897,13 @@
         <v>5279</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,13 +3911,13 @@
         <v>5281</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,13 +3925,13 @@
         <v>5284</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,13 +3939,13 @@
         <v>5286</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,13 +3953,13 @@
         <v>5288</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>241</v>
+        <v>574</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,13 +3967,13 @@
         <v>5291</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +3981,13 @@
         <v>5292</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +3995,13 @@
         <v>5293</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +4009,13 @@
         <v>5294</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>237</v>
+        <v>576</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +4023,13 @@
         <v>5296</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>238</v>
+        <v>577</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,13 +4037,13 @@
         <v>5297</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +4051,13 @@
         <v>5299</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>67</v>
+        <v>578</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,13 +4065,13 @@
         <v>5300</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +4079,13 @@
         <v>5301</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,13 +4093,13 @@
         <v>5302</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,13 +4107,13 @@
         <v>5304</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,13 +4121,13 @@
         <v>5305</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,13 +4135,13 @@
         <v>5306</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>19</v>
+        <v>579</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,13 +4149,13 @@
         <v>5307</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,13 +4163,13 @@
         <v>5308</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,13 +4177,13 @@
         <v>5309</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,13 +4191,13 @@
         <v>5310</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,13 +4205,13 @@
         <v>5311</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,13 +4219,13 @@
         <v>5312</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,13 +4233,13 @@
         <v>5313</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,13 +4247,13 @@
         <v>5321</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>69</v>
+        <v>580</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,13 +4261,13 @@
         <v>5323</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,13 +4275,13 @@
         <v>5324</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,13 +4289,13 @@
         <v>5325</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>69</v>
+        <v>581</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,13 +4303,13 @@
         <v>5326</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +4317,13 @@
         <v>5327</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,13 +4331,13 @@
         <v>5329</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,13 +4345,13 @@
         <v>5330</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,13 +4359,13 @@
         <v>5331</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>57</v>
+        <v>582</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,13 +4373,13 @@
         <v>5332</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,13 +4387,13 @@
         <v>5334</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>9</v>
+        <v>583</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,13 +4401,13 @@
         <v>5336</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,13 +4415,13 @@
         <v>5337</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,13 +4429,13 @@
         <v>5338</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,13 +4443,13 @@
         <v>5340</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,13 +4457,13 @@
         <v>5342</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,13 +4471,13 @@
         <v>5344</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,13 +4485,13 @@
         <v>5346</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,13 +4499,13 @@
         <v>5347</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,13 +4513,13 @@
         <v>5363</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,13 +4527,13 @@
         <v>5373</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,13 +4541,13 @@
         <v>5375</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,13 +4555,13 @@
         <v>5377</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,13 +4569,13 @@
         <v>5379</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,13 +4583,13 @@
         <v>5381</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,13 +4597,13 @@
         <v>5383</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,13 +4611,13 @@
         <v>5385</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,13 +4625,13 @@
         <v>5387</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,13 +4639,13 @@
         <v>5388</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,13 +4653,13 @@
         <v>5389</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,13 +4667,13 @@
         <v>5391</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,13 +4681,13 @@
         <v>5393</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4608,13 +4695,13 @@
         <v>5395</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,13 +4709,13 @@
         <v>5398</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,13 +4723,13 @@
         <v>5400</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,13 +4737,13 @@
         <v>5428</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,13 +4751,13 @@
         <v>5429</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,13 +4765,13 @@
         <v>5430</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,13 +4779,13 @@
         <v>5431</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,13 +4793,13 @@
         <v>5432</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4720,13 +4807,13 @@
         <v>5433</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,13 +4821,13 @@
         <v>5434</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,13 +4835,13 @@
         <v>5435</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,13 +4849,13 @@
         <v>5436</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,13 +4863,13 @@
         <v>5438</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4790,13 +4877,13 @@
         <v>5440</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,13 +4891,13 @@
         <v>5442</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>50</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4818,13 +4905,13 @@
         <v>5444</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>32</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,13 +4919,13 @@
         <v>5448</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,13 +4933,13 @@
         <v>5450</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,13 +4947,13 @@
         <v>5452</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,13 +4961,13 @@
         <v>5454</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4888,13 +4975,13 @@
         <v>5456</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,13 +4989,13 @@
         <v>5458</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,13 +5003,13 @@
         <v>5460</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,13 +5017,13 @@
         <v>5461</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,13 +5031,13 @@
         <v>5462</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,13 +5045,13 @@
         <v>5463</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,13 +5059,13 @@
         <v>5464</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,13 +5073,13 @@
         <v>5465</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,13 +5087,13 @@
         <v>5466</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,13 +5101,13 @@
         <v>5467</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,13 +5115,13 @@
         <v>5468</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,13 +5129,13 @@
         <v>5469</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,13 +5143,13 @@
         <v>5472</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,13 +5157,13 @@
         <v>5473</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,13 +5171,13 @@
         <v>5474</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,13 +5185,13 @@
         <v>5475</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,13 +5199,13 @@
         <v>5476</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,13 +5213,13 @@
         <v>5477</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,13 +5227,13 @@
         <v>5479</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,13 +5241,13 @@
         <v>5480</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,13 +5255,13 @@
         <v>5481</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>58</v>
+        <v>588</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,13 +5269,13 @@
         <v>5482</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,13 +5283,13 @@
         <v>5483</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,13 +5297,13 @@
         <v>5484</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,13 +5311,13 @@
         <v>5485</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>188</v>
+        <v>589</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,13 +5325,13 @@
         <v>5486</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,13 +5339,13 @@
         <v>5487</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>188</v>
+        <v>591</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,13 +5353,13 @@
         <v>5488</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,13 +5367,13 @@
         <v>5489</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,13 +5381,13 @@
         <v>5490</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,13 +5395,13 @@
         <v>5491</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>160</v>
+        <v>592</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>463</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5409,13 @@
         <v>5492</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>10</v>
+        <v>594</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>45</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,13 +5423,13 @@
         <v>5493</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,13 +5437,13 @@
         <v>5494</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>10</v>
+        <v>595</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,13 +5451,13 @@
         <v>5495</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,13 +5465,13 @@
         <v>5496</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,13 +5479,13 @@
         <v>5497</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>54</v>
+        <v>597</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>51</v>
+        <v>570</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,13 +5493,13 @@
         <v>5498</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,13 +5507,13 @@
         <v>5499</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,13 +5521,13 @@
         <v>5520</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,13 +5535,13 @@
         <v>5521</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,13 +5549,13 @@
         <v>5522</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,13 +5563,13 @@
         <v>5523</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,13 +5577,13 @@
         <v>5524</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,13 +5591,13 @@
         <v>5525</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>41</v>
+        <v>545</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,13 +5605,13 @@
         <v>5526</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,13 +5619,13 @@
         <v>5527</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,13 +5633,13 @@
         <v>5529</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>247</v>
+        <v>598</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5560,13 +5647,13 @@
         <v>5531</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,13 +5661,13 @@
         <v>5533</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,13 +5675,13 @@
         <v>5536</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>243</v>
+        <v>600</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5602,13 +5689,13 @@
         <v>5537</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>242</v>
+        <v>601</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,13 +5703,13 @@
         <v>5538</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,13 +5717,13 @@
         <v>5539</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>49</v>
+        <v>587</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,13 +5731,13 @@
         <v>5540</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,13 +5745,13 @@
         <v>5541</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>47</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,13 +5759,13 @@
         <v>5543</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,13 +5773,13 @@
         <v>5544</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,13 +5787,13 @@
         <v>5546</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,13 +5801,13 @@
         <v>5565</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5728,13 +5815,13 @@
         <v>5566</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,13 +5829,13 @@
         <v>5570</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,13 +5843,13 @@
         <v>5571</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,13 +5857,13 @@
         <v>5572</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,13 +5871,13 @@
         <v>5573</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5798,13 +5885,13 @@
         <v>5574</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5812,13 +5899,13 @@
         <v>5575</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,13 +5913,13 @@
         <v>5578</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,13 +5927,13 @@
         <v>5579</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,13 +5941,13 @@
         <v>5580</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>546</v>
+        <v>498</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5868,13 +5955,13 @@
         <v>5581</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,13 +5969,13 @@
         <v>5582</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5896,13 +5983,13 @@
         <v>5583</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,13 +5997,13 @@
         <v>5584</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,13 +6011,13 @@
         <v>5585</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,13 +6025,13 @@
         <v>5586</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,13 +6039,13 @@
         <v>5587</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,13 +6053,13 @@
         <v>5589</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,13 +6067,13 @@
         <v>5590</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>76</v>
+        <v>606</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,13 +6081,13 @@
         <v>5591</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,13 +6095,13 @@
         <v>5593</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6022,13 +6109,13 @@
         <v>5598</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,13 +6123,13 @@
         <v>5700</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,13 +6137,13 @@
         <v>5848</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,13 +6151,13 @@
         <v>5849</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,13 +6165,13 @@
         <v>5850</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,13 +6179,13 @@
         <v>5851</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,13 +6193,13 @@
         <v>5852</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6120,13 +6207,13 @@
         <v>5853</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,13 +6221,13 @@
         <v>5854</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6148,13 +6235,13 @@
         <v>5855</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,13 +6249,13 @@
         <v>5856</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6176,13 +6263,13 @@
         <v>5857</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,13 +6277,13 @@
         <v>5858</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,13 +6291,13 @@
         <v>5859</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6218,13 +6305,13 @@
         <v>5860</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,13 +6319,13 @@
         <v>5861</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,13 +6333,13 @@
         <v>5862</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6260,13 +6347,13 @@
         <v>5863</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,13 +6361,13 @@
         <v>5864</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,13 +6375,13 @@
         <v>5865</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6302,13 +6389,13 @@
         <v>5866</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,13 +6403,13 @@
         <v>5867</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,13 +6417,13 @@
         <v>5868</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6344,13 +6431,13 @@
         <v>5869</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6358,13 +6445,13 @@
         <v>5873</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,13 +6459,13 @@
         <v>5874</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6386,13 +6473,13 @@
         <v>5875</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,13 +6487,13 @@
         <v>5876</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,13 +6501,13 @@
         <v>5877</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,13 +6515,13 @@
         <v>5901</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>28</v>
+        <v>544</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,13 +6529,13 @@
         <v>5902</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,13 +6543,13 @@
         <v>5903</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>75</v>
+        <v>610</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,13 +6557,13 @@
         <v>5904</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,13 +6571,13 @@
         <v>5935</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,13 +6585,13 @@
         <v>5936</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6512,13 +6599,13 @@
         <v>5937</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6526,13 +6613,13 @@
         <v>5941</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,13 +6627,13 @@
         <v>5942</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,13 +6641,13 @@
         <v>5943</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6568,13 +6655,13 @@
         <v>5944</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,13 +6669,13 @@
         <v>5953</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6596,13 +6683,13 @@
         <v>5954</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,13 +6697,13 @@
         <v>5955</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,13 +6711,13 @@
         <v>5956</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6638,13 +6725,13 @@
         <v>5957</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,13 +6739,13 @@
         <v>5958</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6666,13 +6753,13 @@
         <v>5959</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>36</v>
+        <v>548</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6680,13 +6767,13 @@
         <v>5963</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,13 +6781,69 @@
         <v>5965</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>91044</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>91045</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>91046</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>38</v>
+      <c r="C322" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>91047</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605999C0-58B3-4048-BF44-043021E3BD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA0AC1-BEC7-42C3-9507-DBC8ACEA04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="674">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ЗИУ-682В-89</t>
   </si>
   <si>
-    <t>МАЗ-504</t>
-  </si>
-  <si>
     <t>Roman 19256</t>
   </si>
   <si>
@@ -69,18 +66,9 @@
     <t>Fortschritt E-512</t>
   </si>
   <si>
-    <t>Avia A31 N-SJ</t>
-  </si>
-  <si>
-    <t>Avia A31 L-SJ</t>
-  </si>
-  <si>
     <t>Barkas B1000</t>
   </si>
   <si>
-    <t>ГАЗ-66</t>
-  </si>
-  <si>
     <t>IFA W50</t>
   </si>
   <si>
@@ -117,45 +105,18 @@
     <t>Karosa ŠM 11</t>
   </si>
   <si>
-    <t>Police Car</t>
-  </si>
-  <si>
-    <t>IFA W50 (фура)</t>
-  </si>
-  <si>
     <t>IMV 2200D</t>
   </si>
   <si>
-    <t>LIAZ 100</t>
-  </si>
-  <si>
-    <t>LIAZ 100.47</t>
-  </si>
-  <si>
     <t>МАЗ-503</t>
   </si>
   <si>
     <t>Roman 8135</t>
   </si>
   <si>
-    <t>Škoda 706RT TN</t>
-  </si>
-  <si>
-    <t>Tatra 138</t>
-  </si>
-  <si>
-    <t>Tatra 148</t>
-  </si>
-  <si>
-    <t>Tatra 815 6x6</t>
-  </si>
-  <si>
     <t>Урал-377</t>
   </si>
   <si>
-    <t>Praga V3S</t>
-  </si>
-  <si>
     <t>Škoda 1203</t>
   </si>
   <si>
@@ -468,12 +429,6 @@
     <t>LIAZ 100 Valník</t>
   </si>
   <si>
-    <t>Roman 19215DF</t>
-  </si>
-  <si>
-    <t>Roman 19256F</t>
-  </si>
-  <si>
     <t>Roman 8135F</t>
   </si>
   <si>
@@ -645,30 +600,6 @@
     <t>IFA Trabi 601 VB</t>
   </si>
   <si>
-    <t>Ifa-W50 covered</t>
-  </si>
-  <si>
-    <t>K-B732 bus</t>
-  </si>
-  <si>
-    <t>K-SM11 bus</t>
-  </si>
-  <si>
-    <t>LZ-965N bus</t>
-  </si>
-  <si>
-    <t>Mars 309 bus</t>
-  </si>
-  <si>
-    <t>Mars 302 bus</t>
-  </si>
-  <si>
-    <t>PZ-3205 bus</t>
-  </si>
-  <si>
-    <t>Zis-155 bus</t>
-  </si>
-  <si>
     <t>ЗИС-155 Bus</t>
   </si>
   <si>
@@ -1500,9 +1431,6 @@
     <t>Set: Ecs metro</t>
   </si>
   <si>
-    <t>Kmz-5511</t>
-  </si>
-  <si>
     <t>Rmn-135 water truck</t>
   </si>
   <si>
@@ -1608,9 +1536,6 @@
     <t>Chevrolet 2300</t>
   </si>
   <si>
-    <t>IFA Trabi 500 VB</t>
-  </si>
-  <si>
     <t>IMV 1600 Mikrobus</t>
   </si>
   <si>
@@ -1713,9 +1638,6 @@
     <t>КамАЗ-5410 Sklápěč</t>
   </si>
   <si>
-    <t>Hasičský</t>
-  </si>
-  <si>
     <t>Škoda 706RT TN Mrazírenský</t>
   </si>
   <si>
@@ -1839,30 +1761,12 @@
     <t>IMV 1600 Vězeňský</t>
   </si>
   <si>
-    <t>Roman 19215 Popelářské</t>
-  </si>
-  <si>
-    <t>Popelářské</t>
-  </si>
-  <si>
-    <t>LIAZ 100.121 Popelářské</t>
-  </si>
-  <si>
-    <t>IFA W50 Popelářské</t>
-  </si>
-  <si>
     <t>Letadla</t>
   </si>
   <si>
     <t>Helikoptéry</t>
   </si>
   <si>
-    <t>Tatra 815 Popelářské</t>
-  </si>
-  <si>
-    <t>КамАЗ-5320 Popelářské</t>
-  </si>
-  <si>
     <t>Volvo 145 Policejní</t>
   </si>
   <si>
@@ -1876,6 +1780,273 @@
   </si>
   <si>
     <t>Škoda 706RTHP Hasičský vůz</t>
+  </si>
+  <si>
+    <t>GZ-66 valník</t>
+  </si>
+  <si>
+    <t>ГАЗ-66 S plachtou</t>
+  </si>
+  <si>
+    <t>K- B732</t>
+  </si>
+  <si>
+    <t>K- SM11</t>
+  </si>
+  <si>
+    <t>Lz 965N</t>
+  </si>
+  <si>
+    <t>Mrc 302</t>
+  </si>
+  <si>
+    <t>Mrc 309</t>
+  </si>
+  <si>
+    <t>Pz 3205</t>
+  </si>
+  <si>
+    <t>Zis 155</t>
+  </si>
+  <si>
+    <t>Ifa W50 s plachtou</t>
+  </si>
+  <si>
+    <t>Kmz 5511 sklápěč</t>
+  </si>
+  <si>
+    <t>Avia A31 N-SJ S plachtou</t>
+  </si>
+  <si>
+    <t>LIAZ 100 S plachtou</t>
+  </si>
+  <si>
+    <t>Praga V3S S plachtou</t>
+  </si>
+  <si>
+    <t>Tatra T1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Tramvaj</t>
+  </si>
+  <si>
+    <t>Tatra T2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Tatra T3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Tatra T6B5</t>
+  </si>
+  <si>
+    <t>T6B5</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Valník</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 S plachtou</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 Valník</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 S plachtou</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Jeřáb</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 S plachtou</t>
+  </si>
+  <si>
+    <t>КамАЗ-5410 Valník</t>
+  </si>
+  <si>
+    <t>КамАЗ-5410 S plachtou</t>
+  </si>
+  <si>
+    <t>Hasič</t>
+  </si>
+  <si>
+    <t>Škoda 706RT TN S plachtou</t>
+  </si>
+  <si>
+    <t>КрАЗ-256Б Valník</t>
+  </si>
+  <si>
+    <t>КрАЗ-256Б S plachtou</t>
+  </si>
+  <si>
+    <t>Tatra 138 S plachtou</t>
+  </si>
+  <si>
+    <t>Tatra 148 S plachtou</t>
+  </si>
+  <si>
+    <t>Avia A21 L-SJ S plachtou</t>
+  </si>
+  <si>
+    <t>Policejní</t>
+  </si>
+  <si>
+    <t>Škoda 1203 S plachtou</t>
+  </si>
+  <si>
+    <t>Урал-377 Jeřáb</t>
+  </si>
+  <si>
+    <t>Урал-377 Valník</t>
+  </si>
+  <si>
+    <t>Урал-377 S plachtou</t>
+  </si>
+  <si>
+    <t>Barkas B1000 Valník</t>
+  </si>
+  <si>
+    <t>Barkas B1000 S plachtou</t>
+  </si>
+  <si>
+    <t>Żuk A07 Valník</t>
+  </si>
+  <si>
+    <t>Żuk A07 S plachtou</t>
+  </si>
+  <si>
+    <t>Żuk A07 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>IFA W50 Valník</t>
+  </si>
+  <si>
+    <t>IFA W50 (фура) S plachtou</t>
+  </si>
+  <si>
+    <t>IFA W50 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>IFA W50 Jeřáb</t>
+  </si>
+  <si>
+    <t>Je300 S plachtou</t>
+  </si>
+  <si>
+    <t>Je 300 S plachtou</t>
+  </si>
+  <si>
+    <t>Je300 bez plachty</t>
+  </si>
+  <si>
+    <t>Je 300 Valník</t>
+  </si>
+  <si>
+    <t>Je300 sklápěč</t>
+  </si>
+  <si>
+    <t>Je 300 Sklápěč</t>
+  </si>
+  <si>
+    <t>Je300 hasiči</t>
+  </si>
+  <si>
+    <t>Je 300 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>Je300 domíchávač</t>
+  </si>
+  <si>
+    <t>Je 300 Domíchávač</t>
+  </si>
+  <si>
+    <t>Je300 autojeřáb</t>
+  </si>
+  <si>
+    <t>Je 300 Jeřáb</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Valník</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>МАЗ-503 S plachtou</t>
+  </si>
+  <si>
+    <t>МАЗ-503 Valník</t>
+  </si>
+  <si>
+    <t>МАЗ-503 Jeřáb</t>
+  </si>
+  <si>
+    <t>МАЗ-504 S plachtou</t>
+  </si>
+  <si>
+    <t>МАЗ-504 Valník</t>
+  </si>
+  <si>
+    <t>KT8D5</t>
+  </si>
+  <si>
+    <t>Волга ГАЗ-21 Policejní</t>
+  </si>
+  <si>
+    <t>LIAZ 100.47 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 8135 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 19215DF Valník</t>
+  </si>
+  <si>
+    <t>Roman 19256F Valník</t>
+  </si>
+  <si>
+    <t>IMV 2200D S plachtou</t>
+  </si>
+  <si>
+    <t>IMV 2200D Hasičský vůz</t>
+  </si>
+  <si>
+    <t>IMV 2200D Valník</t>
+  </si>
+  <si>
+    <t>V24 policejní</t>
+  </si>
+  <si>
+    <t>Tatra 815 6x6 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 19215 Popelář</t>
+  </si>
+  <si>
+    <t>Popelář</t>
+  </si>
+  <si>
+    <t>LIAZ 100.121 Popelář</t>
+  </si>
+  <si>
+    <t>IFA W50 Popelář</t>
+  </si>
+  <si>
+    <t>IFA Trabi 500</t>
+  </si>
+  <si>
+    <t>Tatra 815 Kontejnerový</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Kontejnerový</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,27 +2500,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5000</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>586</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2531,13 @@
         <v>5002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>587</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2545,13 @@
         <v>5004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>588</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,13 +2559,13 @@
         <v>5006</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>589</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,13 +2573,13 @@
         <v>5008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>590</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2587,13 @@
         <v>5010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>591</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,13 +2601,13 @@
         <v>5012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>592</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,13 +2615,13 @@
         <v>5014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>593</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,13 +2629,13 @@
         <v>5020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>594</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2643,13 @@
         <v>5024</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>491</v>
+        <v>595</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2657,13 @@
         <v>5041</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2671,13 @@
         <v>5043</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>596</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2685,13 @@
         <v>5045</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,13 +2699,13 @@
         <v>5047</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,13 +2713,13 @@
         <v>5049</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2727,13 @@
         <v>5051</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2741,13 @@
         <v>5053</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,13 +2755,13 @@
         <v>5055</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,13 +2769,13 @@
         <v>5057</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,13 +2783,13 @@
         <v>5059</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,13 +2797,13 @@
         <v>5061</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>597</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,13 +2811,13 @@
         <v>5063</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,13 +2825,13 @@
         <v>5065</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,13 +2839,13 @@
         <v>5089</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,13 +2853,13 @@
         <v>5091</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,13 +2867,13 @@
         <v>5093</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2707,13 +2881,13 @@
         <v>5095</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,13 +2895,13 @@
         <v>5097</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>598</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,13 +2909,13 @@
         <v>5099</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,13 +2923,13 @@
         <v>5101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,13 +2937,13 @@
         <v>5103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,13 +2951,13 @@
         <v>5105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,13 +2965,13 @@
         <v>5107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,13 +2979,13 @@
         <v>5109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,13 +2993,13 @@
         <v>5111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,4017 +3007,4199 @@
         <v>5113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5144</v>
+        <v>5121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>242</v>
+        <v>599</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>5148</v>
+        <v>5123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>5152</v>
+        <v>5125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>243</v>
+        <v>604</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>605</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>5154</v>
+        <v>5127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>244</v>
+        <v>606</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>607</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5155</v>
+        <v>5144</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>5156</v>
+        <v>5148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>246</v>
+        <v>504</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5157</v>
+        <v>5152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>5158</v>
+        <v>5154</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>5159</v>
+        <v>5155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>5161</v>
+        <v>5156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>526</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>5162</v>
+        <v>5157</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>127</v>
+        <v>527</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>5163</v>
+        <v>5158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>5164</v>
+        <v>5159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>5165</v>
+        <v>5161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>557</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5166</v>
+        <v>5162</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5168</v>
+        <v>5163</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5169</v>
+        <v>5164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
+        <v>531</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5170</v>
+        <v>5165</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5171</v>
+        <v>5166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5172</v>
+        <v>5168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5173</v>
+        <v>5169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>612</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5175</v>
+        <v>5170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>613</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5176</v>
+        <v>5171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5177</v>
+        <v>5172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>5178</v>
+        <v>5173</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>614</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5179</v>
+        <v>5175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>150</v>
+        <v>615</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>5181</v>
+        <v>5176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>5182</v>
+        <v>5177</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>614</v>
+        <v>536</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>5183</v>
+        <v>5178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>615</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>5184</v>
+        <v>5179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>616</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5185</v>
+        <v>5181</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>581</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>5186</v>
+        <v>5182</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>5187</v>
+        <v>5183</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>37</v>
+        <v>583</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>5188</v>
+        <v>5184</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>26</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>5189</v>
+        <v>5185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>5210</v>
+        <v>5186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>5212</v>
+        <v>5187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>617</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>5216</v>
+        <v>5188</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>544</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5218</v>
+        <v>5189</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>5219</v>
+        <v>5210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>5220</v>
+        <v>5212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>5221</v>
+        <v>5216</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>540</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>5223</v>
+        <v>5218</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>5224</v>
+        <v>5219</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>187</v>
+        <v>618</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>5225</v>
+        <v>5220</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>619</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>5226</v>
+        <v>5221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>5227</v>
+        <v>5223</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>567</v>
+        <v>620</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>5228</v>
+        <v>5224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>5230</v>
+        <v>5225</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>5231</v>
+        <v>5226</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>5232</v>
+        <v>5227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>122</v>
+        <v>541</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>5233</v>
+        <v>5228</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>568</v>
+        <v>123</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>5234</v>
+        <v>5230</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>153</v>
+        <v>621</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>5235</v>
+        <v>5231</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>5237</v>
+        <v>5232</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>5238</v>
+        <v>5233</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>542</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>27</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>5242</v>
+        <v>5235</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>622</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>5244</v>
+        <v>5237</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>569</v>
+        <v>32</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>5246</v>
+        <v>5238</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>5247</v>
+        <v>5240</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>5249</v>
+        <v>5242</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>541</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>157</v>
+        <v>543</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>5251</v>
+        <v>5246</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>5252</v>
+        <v>5247</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>5254</v>
+        <v>5249</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>200</v>
+        <v>624</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>5260</v>
+        <v>5251</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>565</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>5264</v>
+        <v>5252</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>5272</v>
+        <v>5254</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>5274</v>
+        <v>5256</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>5275</v>
+        <v>5260</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>572</v>
+        <v>285</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>5276</v>
+        <v>5264</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>573</v>
+        <v>90</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>544</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>5277</v>
+        <v>5272</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>5278</v>
+        <v>5274</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>41</v>
+        <v>625</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>5279</v>
+        <v>5275</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>315</v>
+        <v>546</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>81</v>
+        <v>626</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>5281</v>
+        <v>5276</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>5284</v>
+        <v>5277</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>93</v>
+        <v>627</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>5286</v>
+        <v>5278</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>5288</v>
+        <v>5279</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>574</v>
+        <v>68</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>5291</v>
+        <v>5281</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>5292</v>
+        <v>5284</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>5293</v>
+        <v>5286</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>575</v>
+        <v>81</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>5294</v>
+        <v>5288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>5296</v>
+        <v>5291</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>5297</v>
+        <v>5292</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>114</v>
+        <v>629</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>5299</v>
+        <v>5293</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>5300</v>
+        <v>5294</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>5301</v>
+        <v>5296</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>5302</v>
+        <v>5297</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>5304</v>
+        <v>5299</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>44</v>
+        <v>552</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>18</v>
+        <v>630</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>5306</v>
+        <v>5301</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>579</v>
+        <v>631</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>5307</v>
+        <v>5302</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>550</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>5308</v>
+        <v>5304</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>18</v>
+        <v>632</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>5309</v>
+        <v>5305</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>18</v>
+        <v>633</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>5310</v>
+        <v>5306</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>31</v>
+        <v>553</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>5311</v>
+        <v>5307</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>5312</v>
+        <v>5308</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>47</v>
+        <v>633</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>5313</v>
+        <v>5309</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>5321</v>
+        <v>5310</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>5323</v>
+        <v>5311</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>46</v>
+        <v>635</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>5324</v>
+        <v>5312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>5325</v>
+        <v>5313</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>5326</v>
+        <v>5314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>342</v>
+        <v>637</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>46</v>
+        <v>638</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>5327</v>
+        <v>5315</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>343</v>
+        <v>639</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>35</v>
+        <v>640</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>5329</v>
+        <v>5316</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>344</v>
+        <v>641</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>35</v>
+        <v>642</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>5330</v>
+        <v>5317</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>345</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>35</v>
+        <v>644</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>5331</v>
+        <v>5318</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>346</v>
+        <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>5332</v>
+        <v>5319</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>347</v>
+        <v>647</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>35</v>
+        <v>648</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>5334</v>
+        <v>5321</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>26</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>5336</v>
+        <v>5323</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>9</v>
+        <v>649</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>5337</v>
+        <v>5324</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>5338</v>
+        <v>5325</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>96</v>
+        <v>555</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>27</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>5340</v>
+        <v>5326</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>97</v>
+        <v>650</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>27</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>5342</v>
+        <v>5327</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>27</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>5344</v>
+        <v>5329</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>5346</v>
+        <v>5330</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>115</v>
+        <v>652</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>27</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>5347</v>
+        <v>5331</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>5363</v>
+        <v>5332</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>110</v>
+        <v>653</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>27</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>5373</v>
+        <v>5334</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>178</v>
+        <v>557</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>585</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>5375</v>
+        <v>5336</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>174</v>
+        <v>654</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>5377</v>
+        <v>5337</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>168</v>
+        <v>655</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>5379</v>
+        <v>5338</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>5381</v>
+        <v>5340</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>5383</v>
+        <v>5342</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>5385</v>
+        <v>5344</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>173</v>
+        <v>558</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>5387</v>
+        <v>5346</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>5388</v>
+        <v>5347</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>5389</v>
+        <v>5363</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>5391</v>
+        <v>5365</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>367</v>
+        <v>656</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>179</v>
+        <v>656</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>5393</v>
+        <v>5373</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>5395</v>
+        <v>5375</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>5398</v>
+        <v>5377</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>5400</v>
+        <v>5379</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>5428</v>
+        <v>5381</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>5429</v>
+        <v>5383</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>5430</v>
+        <v>5385</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>5431</v>
+        <v>5387</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>5432</v>
+        <v>5388</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>5433</v>
+        <v>5389</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>5434</v>
+        <v>5389</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>186</v>
+        <v>657</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>5435</v>
+        <v>5391</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>5436</v>
+        <v>5393</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>5438</v>
+        <v>5395</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>5440</v>
+        <v>5398</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>5442</v>
+        <v>5400</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>5444</v>
+        <v>5428</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>5448</v>
+        <v>5429</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>380</v>
+        <v>203</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>161</v>
+        <v>597</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>5450</v>
+        <v>5430</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>5452</v>
+        <v>5431</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>5454</v>
+        <v>5432</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>184</v>
+        <v>658</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>5456</v>
+        <v>5433</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>5458</v>
+        <v>5434</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>5460</v>
+        <v>5435</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>524</v>
+        <v>161</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>5461</v>
+        <v>5436</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>523</v>
+        <v>162</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>5462</v>
+        <v>5438</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>5463</v>
+        <v>5440</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>5464</v>
+        <v>5442</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>5465</v>
+        <v>5444</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>5466</v>
+        <v>5448</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>5467</v>
+        <v>5450</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>5468</v>
+        <v>5452</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>5469</v>
+        <v>5454</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>5472</v>
+        <v>5456</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>5473</v>
+        <v>5458</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>5474</v>
+        <v>5460</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>5475</v>
+        <v>5461</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>20</v>
+        <v>499</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>5476</v>
+        <v>5462</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>5477</v>
+        <v>5463</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>5479</v>
+        <v>5464</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>5480</v>
+        <v>5465</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>5481</v>
+        <v>5466</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>5482</v>
+        <v>5467</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>5483</v>
+        <v>5468</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>5484</v>
+        <v>5469</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>5485</v>
+        <v>5472</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>589</v>
+        <v>180</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>5486</v>
+        <v>5473</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>590</v>
+        <v>14</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>5487</v>
+        <v>5474</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>591</v>
+        <v>15</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>5488</v>
+        <v>5475</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>5489</v>
+        <v>5476</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>5490</v>
+        <v>5477</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>5491</v>
+        <v>5479</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>592</v>
+        <v>134</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>593</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>5492</v>
+        <v>5480</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>5493</v>
+        <v>5481</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>148</v>
+        <v>562</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>5494</v>
+        <v>5482</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>26</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>5495</v>
+        <v>5483</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>5496</v>
+        <v>5484</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>596</v>
+        <v>143</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>5497</v>
+        <v>5485</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>5498</v>
+        <v>5486</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>32</v>
+        <v>564</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>27</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>5499</v>
+        <v>5487</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>32</v>
+        <v>565</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>5520</v>
+        <v>5488</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>5521</v>
+        <v>5489</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>32</v>
+        <v>660</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>5522</v>
+        <v>5490</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>5523</v>
+        <v>5491</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>10</v>
+        <v>566</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>5524</v>
+        <v>5492</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>196</v>
+        <v>568</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>587</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>5525</v>
+        <v>5493</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>154</v>
+        <v>661</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>5526</v>
+        <v>5494</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>49</v>
+        <v>569</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>562</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>5527</v>
+        <v>5495</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>5529</v>
+        <v>5496</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>30</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>5531</v>
+        <v>5497</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>90</v>
+        <v>571</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>5533</v>
+        <v>5498</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>599</v>
+        <v>26</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>5536</v>
+        <v>5499</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>600</v>
+        <v>662</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>30</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>5537</v>
+        <v>5520</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>30</v>
+        <v>616</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>5538</v>
+        <v>5521</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>140</v>
+        <v>664</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>5539</v>
+        <v>5522</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>587</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>5540</v>
+        <v>5523</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>5541</v>
+        <v>5524</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>5543</v>
+        <v>5525</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>30</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>5544</v>
+        <v>5526</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>30</v>
+        <v>616</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>5546</v>
+        <v>5527</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>602</v>
+        <v>154</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>30</v>
+        <v>559</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>5565</v>
+        <v>5529</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>141</v>
+        <v>572</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>5566</v>
+        <v>5530</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>440</v>
+        <v>665</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>5570</v>
+        <v>5531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>5571</v>
+        <v>5533</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>189</v>
+        <v>573</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>5572</v>
+        <v>5536</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>190</v>
+        <v>574</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>5573</v>
+        <v>5537</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>128</v>
+        <v>575</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>5574</v>
+        <v>5538</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>5575</v>
+        <v>5539</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>5578</v>
+        <v>5540</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>5579</v>
+        <v>5541</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>497</v>
+        <v>176</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>5580</v>
+        <v>5543</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>498</v>
+        <v>190</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>5581</v>
+        <v>5544</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>5582</v>
+        <v>5546</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>134</v>
+        <v>576</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>5583</v>
+        <v>5565</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>5584</v>
+        <v>5566</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>5585</v>
+        <v>5570</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>503</v>
+        <v>418</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>528</v>
+        <v>666</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>5586</v>
+        <v>5571</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>603</v>
+        <v>174</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>30</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>5587</v>
+        <v>5572</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>5589</v>
+        <v>5573</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>604</v>
+        <v>115</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>5590</v>
+        <v>5574</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>606</v>
+        <v>130</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>5591</v>
+        <v>5575</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>5593</v>
+        <v>5578</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>5598</v>
+        <v>5579</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>159</v>
+        <v>473</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>5700</v>
+        <v>5580</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>87</v>
+        <v>474</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>5848</v>
+        <v>5581</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>27</v>
+        <v>525</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>5849</v>
+        <v>5582</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>527</v>
+        <v>121</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>30</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>5850</v>
+        <v>5583</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>5851</v>
+        <v>5584</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>460</v>
+        <v>124</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>608</v>
+        <v>525</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>5852</v>
+        <v>5585</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>5853</v>
+        <v>5586</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>5854</v>
+        <v>5587</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>5855</v>
+        <v>5589</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>59</v>
+        <v>667</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>5856</v>
+        <v>5590</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>63</v>
+        <v>669</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>5857</v>
+        <v>5591</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>61</v>
+        <v>670</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>5858</v>
+        <v>5593</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>608</v>
+        <v>668</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>5859</v>
+        <v>5598</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>5860</v>
+        <v>5700</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>608</v>
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>5861</v>
+        <v>5848</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>608</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>5862</v>
+        <v>5849</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>80</v>
+        <v>671</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>5863</v>
+        <v>5850</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>5864</v>
+        <v>5851</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>75</v>
+        <v>437</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>5865</v>
+        <v>5852</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>5866</v>
+        <v>5853</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>5867</v>
+        <v>5854</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>5868</v>
+        <v>5855</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>518</v>
+        <v>46</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>5869</v>
+        <v>5856</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>5873</v>
+        <v>5857</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>516</v>
+        <v>48</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>5874</v>
+        <v>5858</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>5875</v>
+        <v>5859</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>54</v>
+        <v>443</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>5876</v>
+        <v>5860</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>5877</v>
+        <v>5861</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>520</v>
+        <v>45</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>5901</v>
+        <v>5862</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>5902</v>
+        <v>5863</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>5903</v>
+        <v>5864</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>5904</v>
+        <v>5865</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>611</v>
+        <v>66</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>5935</v>
+        <v>5866</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>5936</v>
+        <v>5867</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>612</v>
+        <v>63</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>30</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>5937</v>
+        <v>5868</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>5941</v>
+        <v>5869</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>5942</v>
+        <v>5873</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>65</v>
+        <v>492</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>5943</v>
+        <v>5874</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>5944</v>
+        <v>5875</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>481</v>
+        <v>41</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>5953</v>
+        <v>5876</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>5954</v>
+        <v>5877</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>69</v>
+        <v>496</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>5955</v>
+        <v>5901</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>5956</v>
+        <v>5902</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>548</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>5957</v>
+        <v>5903</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>74</v>
+        <v>672</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>548</v>
+        <v>668</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>5958</v>
+        <v>5904</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>73</v>
+        <v>673</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>548</v>
+        <v>668</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>5959</v>
+        <v>5935</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>5963</v>
+        <v>5936</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>28</v>
+        <v>623</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>5965</v>
+        <v>5937</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>28</v>
+        <v>559</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>91044</v>
+        <v>5941</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>533</v>
+        <v>455</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>91045</v>
+        <v>5942</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>536</v>
+        <v>52</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>91046</v>
+        <v>5943</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>538</v>
+        <v>53</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>586</v>
+        <v>523</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
+        <v>5944</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>5953</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>5954</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>5955</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>5956</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>5957</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>5958</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>5959</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>5963</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>5965</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>91044</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>91045</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>91046</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>91047</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>586</v>
+      <c r="B336" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA0AC1-BEC7-42C3-9507-DBC8ACEA04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D177C7-111B-43EB-8851-1B6EE755C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="696">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ЗИУ-682В-89</t>
   </si>
   <si>
-    <t>Roman 19256</t>
-  </si>
-  <si>
     <t>СК-4 Нива</t>
   </si>
   <si>
@@ -120,18 +117,12 @@
     <t>Škoda 1203</t>
   </si>
   <si>
-    <t>Żuk A07</t>
-  </si>
-  <si>
     <t>Avia A31 Hasičský vůz</t>
   </si>
   <si>
     <t>ГАЗ-53</t>
   </si>
   <si>
-    <t>IFA W50 (лестница)</t>
-  </si>
-  <si>
     <t>Tatra 815 Hasičská Cisterna</t>
   </si>
   <si>
@@ -261,12 +252,6 @@
     <t>Řada 775 Pomeranč</t>
   </si>
   <si>
-    <t>Set: 81-720 metro</t>
-  </si>
-  <si>
-    <t>Set: 81-709 Ečs metro</t>
-  </si>
-  <si>
     <t>MV 820</t>
   </si>
   <si>
@@ -366,12 +351,6 @@
     <t>Praga V3S S1</t>
   </si>
   <si>
-    <t>ЗИЛ-130</t>
-  </si>
-  <si>
-    <t>ЗИЛ-133</t>
-  </si>
-  <si>
     <t>LIAZ 100.820 Fekální vůz</t>
   </si>
   <si>
@@ -456,9 +435,6 @@
     <t>Škoda 1203 Valník</t>
   </si>
   <si>
-    <t>Roman 12215</t>
-  </si>
-  <si>
     <t>Tatra 815 Z22 Kmenový přepravník</t>
   </si>
   <si>
@@ -513,9 +489,6 @@
     <t>IFA Trabi 601</t>
   </si>
   <si>
-    <t>IFA Trabi 601 kombi</t>
-  </si>
-  <si>
     <t>Волга ГАЗ-24</t>
   </si>
   <si>
@@ -633,9 +606,6 @@
     <t>LZ100 open</t>
   </si>
   <si>
-    <t>A30N refrigerated</t>
-  </si>
-  <si>
     <t>LZ100 covered</t>
   </si>
   <si>
@@ -687,51 +657,12 @@
     <t>M131 motorcar</t>
   </si>
   <si>
-    <t>Zil-130 open</t>
-  </si>
-  <si>
-    <t>Zil-130 covered</t>
-  </si>
-  <si>
-    <t>Zil-130 cistern</t>
-  </si>
-  <si>
-    <t>Zil-130 crane</t>
-  </si>
-  <si>
-    <t>Zil-130 refrigerated</t>
-  </si>
-  <si>
-    <t>Zil-133 dumper</t>
-  </si>
-  <si>
-    <t>Zil-133 with crane</t>
-  </si>
-  <si>
-    <t>Zil-133 mixer</t>
-  </si>
-  <si>
-    <t>Zil-133 cistern</t>
-  </si>
-  <si>
-    <t>Zil-130 dumper</t>
-  </si>
-  <si>
-    <t>Zil-133 open</t>
-  </si>
-  <si>
     <t>Kmz-5320 with crane</t>
   </si>
   <si>
-    <t>Zil-133 covered</t>
-  </si>
-  <si>
     <t>Kmz-5320 cistern</t>
   </si>
   <si>
-    <t>Kmz-5320 crane</t>
-  </si>
-  <si>
     <t>Kmz-5320 covered</t>
   </si>
   <si>
@@ -747,9 +678,6 @@
     <t>Kmz-5410 covered</t>
   </si>
   <si>
-    <t>Kmz-5410 refrigerated</t>
-  </si>
-  <si>
     <t>Kmz-5410 dumper</t>
   </si>
   <si>
@@ -774,9 +702,6 @@
     <t>Skd-706 RTTN open</t>
   </si>
   <si>
-    <t>Skd-706 RTTN refrigerated</t>
-  </si>
-  <si>
     <t>Skd-706 RTTN covered</t>
   </si>
   <si>
@@ -936,21 +861,6 @@
     <t>R2203 microbus</t>
   </si>
   <si>
-    <t>FZK-A07 ambulance</t>
-  </si>
-  <si>
-    <t>FZK-A07 open</t>
-  </si>
-  <si>
-    <t>FZK-A07 covered</t>
-  </si>
-  <si>
-    <t>FZK-A07 microbus</t>
-  </si>
-  <si>
-    <t>FZK-A07 fire truck</t>
-  </si>
-  <si>
     <t>W50 dumper</t>
   </si>
   <si>
@@ -966,12 +876,6 @@
     <t>W50 fire truck</t>
   </si>
   <si>
-    <t>W50 fire ladder</t>
-  </si>
-  <si>
-    <t>W50 crane</t>
-  </si>
-  <si>
     <t>GZ53 dumper</t>
   </si>
   <si>
@@ -981,9 +885,6 @@
     <t>GZ53 cistern</t>
   </si>
   <si>
-    <t>GZ53 refrigerated</t>
-  </si>
-  <si>
     <t>GZ53 fire truck</t>
   </si>
   <si>
@@ -1164,9 +1065,6 @@
     <t>Rmn-135FK dumper</t>
   </si>
   <si>
-    <t>Rmn-135 refrigerated</t>
-  </si>
-  <si>
     <t>Rmn-135 covered</t>
   </si>
   <si>
@@ -1197,9 +1095,6 @@
     <t>Rmn 19-215 excavator</t>
   </si>
   <si>
-    <t>Rmd 19-256 refrigerated</t>
-  </si>
-  <si>
     <t>Rmd 19-256 flatbed</t>
   </si>
   <si>
@@ -1590,12 +1485,6 @@
     <t>Valník</t>
   </si>
   <si>
-    <t>Avia A31 K-SI Mrazírenský</t>
-  </si>
-  <si>
-    <t>Mrazírenský</t>
-  </si>
-  <si>
     <t>Vlak</t>
   </si>
   <si>
@@ -1605,12 +1494,6 @@
     <t>Cisterna</t>
   </si>
   <si>
-    <t>ЗИЛ-130 Jeřáb</t>
-  </si>
-  <si>
-    <t>ЗИЛ-130 Mrazírenský</t>
-  </si>
-  <si>
     <t>ЗИЛ-130 Sklápěč</t>
   </si>
   <si>
@@ -1620,9 +1503,6 @@
     <t>Domíchávač</t>
   </si>
   <si>
-    <t>ЗИЛ-133 Jeřáb</t>
-  </si>
-  <si>
     <t>ЗИЛ-133 Sklápěč</t>
   </si>
   <si>
@@ -1683,18 +1563,12 @@
     <t>РАФ-2203 Sanitka</t>
   </si>
   <si>
-    <t>Żuk A07 Sanitka</t>
-  </si>
-  <si>
     <t>IFA W50 Sklápěč</t>
   </si>
   <si>
     <t>ГАЗ-53 Sklápěč</t>
   </si>
   <si>
-    <t>ГАЗ-53 Mrazírenský</t>
-  </si>
-  <si>
     <t>МАЗ-503 Sklápěč</t>
   </si>
   <si>
@@ -1713,27 +1587,12 @@
     <t>Pluh</t>
   </si>
   <si>
-    <t>Roman 8135 Mrazírenský</t>
-  </si>
-  <si>
     <t>Roman 12215 Domíchávač</t>
   </si>
   <si>
-    <t>Roman 19256 na kulatinu</t>
-  </si>
-  <si>
-    <t>Roman 12215 na kulatinu</t>
-  </si>
-  <si>
     <t>Roman 19215 Bagr</t>
   </si>
   <si>
-    <t>Bagr</t>
-  </si>
-  <si>
-    <t>Roman 19256 Mrazírenský</t>
-  </si>
-  <si>
     <t>Roman 19256 na cement</t>
   </si>
   <si>
@@ -1743,24 +1602,9 @@
     <t>IMV 2200D Sanitka</t>
   </si>
   <si>
-    <t>Škoda 1203 Vězeňský</t>
-  </si>
-  <si>
-    <t>Nysa 522 Vězeňský</t>
-  </si>
-  <si>
-    <t>Avia A21 Vězeňský</t>
-  </si>
-  <si>
-    <t>Avia A31 Vězeňský</t>
-  </si>
-  <si>
     <t>Fiat 125 Policejní</t>
   </si>
   <si>
-    <t>IMV 1600 Vězeňský</t>
-  </si>
-  <si>
     <t>Letadla</t>
   </si>
   <si>
@@ -1779,9 +1623,6 @@
     <t>Škoda 706RTS</t>
   </si>
   <si>
-    <t>Škoda 706RTHP Hasičský vůz</t>
-  </si>
-  <si>
     <t>GZ-66 valník</t>
   </si>
   <si>
@@ -1863,9 +1704,6 @@
     <t>ЗИЛ-133 S plachtou</t>
   </si>
   <si>
-    <t>КамАЗ-5320 Jeřáb</t>
-  </si>
-  <si>
     <t>КамАЗ-5320 S plachtou</t>
   </si>
   <si>
@@ -1902,9 +1740,6 @@
     <t>Škoda 1203 S plachtou</t>
   </si>
   <si>
-    <t>Урал-377 Jeřáb</t>
-  </si>
-  <si>
     <t>Урал-377 Valník</t>
   </si>
   <si>
@@ -1917,15 +1752,6 @@
     <t>Barkas B1000 S plachtou</t>
   </si>
   <si>
-    <t>Żuk A07 Valník</t>
-  </si>
-  <si>
-    <t>Żuk A07 S plachtou</t>
-  </si>
-  <si>
-    <t>Żuk A07 Hasičský vůz</t>
-  </si>
-  <si>
     <t>IFA W50 Valník</t>
   </si>
   <si>
@@ -1935,9 +1761,6 @@
     <t>IFA W50 Hasičský vůz</t>
   </si>
   <si>
-    <t>IFA W50 Jeřáb</t>
-  </si>
-  <si>
     <t>Je300 S plachtou</t>
   </si>
   <si>
@@ -1959,9 +1782,6 @@
     <t>Je300 hasiči</t>
   </si>
   <si>
-    <t>Je 300 Hasičský vůz</t>
-  </si>
-  <si>
     <t>Je300 domíchávač</t>
   </si>
   <si>
@@ -1971,9 +1791,6 @@
     <t>Je300 autojeřáb</t>
   </si>
   <si>
-    <t>Je 300 Jeřáb</t>
-  </si>
-  <si>
     <t>ГАЗ-53 Valník</t>
   </si>
   <si>
@@ -1986,9 +1803,6 @@
     <t>МАЗ-503 Valník</t>
   </si>
   <si>
-    <t>МАЗ-503 Jeřáb</t>
-  </si>
-  <si>
     <t>МАЗ-504 S plachtou</t>
   </si>
   <si>
@@ -1998,55 +1812,307 @@
     <t>KT8D5</t>
   </si>
   <si>
+    <t>LIAZ 100.47 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 8135 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 19215DF Valník</t>
+  </si>
+  <si>
+    <t>Roman 19256F Valník</t>
+  </si>
+  <si>
+    <t>IMV 2200D S plachtou</t>
+  </si>
+  <si>
+    <t>IMV 2200D Hasičský vůz</t>
+  </si>
+  <si>
+    <t>IMV 2200D Valník</t>
+  </si>
+  <si>
+    <t>V24 policejní</t>
+  </si>
+  <si>
+    <t>Tatra 815 6x6 S plachtou</t>
+  </si>
+  <si>
+    <t>Roman 19215 Popelář</t>
+  </si>
+  <si>
+    <t>Popelář</t>
+  </si>
+  <si>
+    <t>LIAZ 100.121 Popelář</t>
+  </si>
+  <si>
+    <t>IFA W50 Popelář</t>
+  </si>
+  <si>
+    <t>IFA Trabi 500</t>
+  </si>
+  <si>
+    <t>Tatra 815 Kontejnerový</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Kontejnerový</t>
+  </si>
+  <si>
+    <t>Roman 19256 Na kulatinu</t>
+  </si>
+  <si>
+    <t>Roman 12215 Na kulatinu</t>
+  </si>
+  <si>
+    <t>Zil-130 bez plachty</t>
+  </si>
+  <si>
+    <t>Zil-130 s plachtou</t>
+  </si>
+  <si>
+    <t>Zil 130 cisterna</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Cisterna</t>
+  </si>
+  <si>
+    <t>Zil-130 autojeřáb</t>
+  </si>
+  <si>
+    <t>Zil-130 chladírenský</t>
+  </si>
+  <si>
+    <t>Zil-130 sklápěč</t>
+  </si>
+  <si>
+    <t>Zil-133 bez plachty</t>
+  </si>
+  <si>
+    <t>Zil-133 cisterna</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 Cisterna</t>
+  </si>
+  <si>
+    <t>Zil-133 s plachtou</t>
+  </si>
+  <si>
+    <t>Zil-133 domíchávač</t>
+  </si>
+  <si>
+    <t>Zil-133 s drapákem</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 S drapákem</t>
+  </si>
+  <si>
+    <t>Zil-133 sklápěč</t>
+  </si>
+  <si>
+    <t>IFA Trabi 601 Kombi</t>
+  </si>
+  <si>
+    <t>Zil-130 cisterna na vodu</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Vodní cisterna</t>
+  </si>
+  <si>
+    <t>Zil-130 fekální vůz</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Fekální vůz</t>
+  </si>
+  <si>
+    <t>Trabi 500 Combi</t>
+  </si>
+  <si>
+    <t>IFA Trabi 500 Kombi</t>
+  </si>
+  <si>
+    <t>Škoda 1203 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>Nysa 522 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>IFA-W50 vězeňský autobus</t>
+  </si>
+  <si>
+    <t>IFA W50 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>Avia A21 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>Avia A31 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>IMV 1600 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>GZ53-m garbage truck</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Popelář</t>
+  </si>
+  <si>
+    <t>B1000 vězeňský autobus</t>
+  </si>
+  <si>
+    <t>Barkas B1000 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>FZK A07 sanitka</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 Sanitka</t>
+  </si>
+  <si>
+    <t>FZK A07 bez plachty</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 Valník</t>
+  </si>
+  <si>
+    <t>FZK A07 s plachtou</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 S plachtou</t>
+  </si>
+  <si>
+    <t>FZK A07 mikrobus</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 Mikrobus</t>
+  </si>
+  <si>
+    <t>FZK A07 hasiči</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>FZK A07 (vězeňský)</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 ězeňský mikrobus</t>
+  </si>
+  <si>
+    <t>Волга ГАЗ-24 Policejní</t>
+  </si>
+  <si>
     <t>Волга ГАЗ-21 Policejní</t>
   </si>
   <si>
-    <t>LIAZ 100.47 S plachtou</t>
-  </si>
-  <si>
-    <t>Roman 8135 S plachtou</t>
-  </si>
-  <si>
-    <t>Roman 19215DF Valník</t>
-  </si>
-  <si>
-    <t>Roman 19256F Valník</t>
-  </si>
-  <si>
-    <t>IMV 2200D S plachtou</t>
-  </si>
-  <si>
-    <t>IMV 2200D Hasičský vůz</t>
-  </si>
-  <si>
-    <t>IMV 2200D Valník</t>
-  </si>
-  <si>
-    <t>V24 policejní</t>
-  </si>
-  <si>
-    <t>Tatra 815 6x6 S plachtou</t>
-  </si>
-  <si>
-    <t>Roman 19215 Popelář</t>
-  </si>
-  <si>
-    <t>Popelář</t>
-  </si>
-  <si>
-    <t>LIAZ 100.121 Popelář</t>
-  </si>
-  <si>
-    <t>IFA W50 Popelář</t>
-  </si>
-  <si>
-    <t>IFA Trabi 500</t>
-  </si>
-  <si>
-    <t>Tatra 815 Kontejnerový</t>
-  </si>
-  <si>
-    <t>КамАЗ-5320 Kontejnerový</t>
+    <t>ЗИЛ-130 AJ</t>
+  </si>
+  <si>
+    <t>Kmz 5320 autojeřáb</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 AJ</t>
+  </si>
+  <si>
+    <t>Škoda 706RTHP Hasičská cisterna</t>
+  </si>
+  <si>
+    <t>ЗИЛ-133 AJ</t>
+  </si>
+  <si>
+    <t>Урал-377 AJ</t>
+  </si>
+  <si>
+    <t>W50 hasiči se žebříkem</t>
+  </si>
+  <si>
+    <t>IFA W50 Hasičský žebřík</t>
+  </si>
+  <si>
+    <t>W50 autojeřáb</t>
+  </si>
+  <si>
+    <t>IFA W50 AJ</t>
+  </si>
+  <si>
+    <t>Je 300 Hasičská cisterna</t>
+  </si>
+  <si>
+    <t>Je 300 AJ</t>
+  </si>
+  <si>
+    <t>МАЗ-503 AJ</t>
+  </si>
+  <si>
+    <t>IFA W50 Sněžný pluh</t>
+  </si>
+  <si>
+    <t>КрАЗ-256Б Sněžný pluh</t>
+  </si>
+  <si>
+    <t>КамАЗ-5320 Sněžný pluh</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Sněžný pluh</t>
+  </si>
+  <si>
+    <t>Roman 12215 AJ</t>
+  </si>
+  <si>
+    <t>Stavební stroje</t>
+  </si>
+  <si>
+    <t>Roman 19256 Sněžný pluh</t>
+  </si>
+  <si>
+    <t>A30N chladírenská</t>
+  </si>
+  <si>
+    <t>Avia A31 K-SI Chladírenský</t>
+  </si>
+  <si>
+    <t>Chladírenský</t>
+  </si>
+  <si>
+    <t>ЗИЛ-130 Chladírenský</t>
+  </si>
+  <si>
+    <t>Kmz 5410 mrazírenský</t>
+  </si>
+  <si>
+    <t>Skd 706 RTTN mrazírenský</t>
+  </si>
+  <si>
+    <t>GZ-53 chladírenský</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Chladírenský</t>
+  </si>
+  <si>
+    <t>Rmn 135 chladírenské</t>
+  </si>
+  <si>
+    <t>Roman 8135 Chladírenský</t>
+  </si>
+  <si>
+    <t>Rmd 19-256 chladírenské</t>
+  </si>
+  <si>
+    <t>Roman 19256 Chladírenský</t>
+  </si>
+  <si>
+    <t>VAZ 2109 (policejní)</t>
+  </si>
+  <si>
+    <t>Lada Samara</t>
+  </si>
+  <si>
+    <t>Souprava metra 81-720 Jauza</t>
+  </si>
+  <si>
+    <t>Souprava metra 81-709 Ečs</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2274,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{141762B2-7F1A-4858-8891-9C2571E99671}" name="Vehicles" displayName="Vehicles" ref="A1:D1048573" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D1048573" xr:uid="{141762B2-7F1A-4858-8891-9C2571E99671}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D324">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D344">
     <sortCondition ref="A1:A1048573"/>
   </sortState>
   <tableColumns count="4">
@@ -2484,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,16 +2566,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2583,13 @@
         <v>5000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2597,13 @@
         <v>5002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>587</v>
+        <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2611,13 @@
         <v>5004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2625,13 @@
         <v>5006</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,13 +2639,13 @@
         <v>5008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2653,13 @@
         <v>5010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,13 +2667,13 @@
         <v>5012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,13 +2681,13 @@
         <v>5014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2695,13 @@
         <v>5020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +2709,13 @@
         <v>5024</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2723,13 @@
         <v>5041</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2737,13 @@
         <v>5043</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>596</v>
+        <v>543</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +2751,13 @@
         <v>5045</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,13 +2765,13 @@
         <v>5047</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +2779,13 @@
         <v>5049</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,13 +2793,13 @@
         <v>5051</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,13 +2807,13 @@
         <v>5053</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +2821,13 @@
         <v>5055</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +2835,13 @@
         <v>5057</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2849,13 @@
         <v>5059</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>680</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>521</v>
+        <v>681</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2863,13 @@
         <v>5061</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>597</v>
+        <v>544</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +2877,13 @@
         <v>5063</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +2891,13 @@
         <v>5065</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +2905,13 @@
         <v>5089</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2919,13 @@
         <v>5091</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2933,13 @@
         <v>5093</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,13 +2947,13 @@
         <v>5095</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2961,13 @@
         <v>5097</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>598</v>
+        <v>545</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +2975,13 @@
         <v>5099</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,13 +2989,13 @@
         <v>5101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +3003,13 @@
         <v>5103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +3017,13 @@
         <v>5105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +3031,13 @@
         <v>5107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +3045,13 @@
         <v>5109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +3059,13 @@
         <v>5111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +3073,13 @@
         <v>5113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,13 +3087,13 @@
         <v>5121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +3101,13 @@
         <v>5123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>603</v>
+        <v>550</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,13 +3115,13 @@
         <v>5125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>604</v>
+        <v>551</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>605</v>
+        <v>552</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,13 +3129,13 @@
         <v>5127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>606</v>
+        <v>553</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>607</v>
+        <v>554</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,13 +3143,13 @@
         <v>5144</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +3157,13 @@
         <v>5148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,13 +3171,13 @@
         <v>5152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>613</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>608</v>
+        <v>555</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,13 +3185,13 @@
         <v>5154</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>221</v>
+        <v>614</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>609</v>
+        <v>556</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,13 +3199,13 @@
         <v>5155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>222</v>
+        <v>615</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>616</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,13 +3213,13 @@
         <v>5156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>223</v>
+        <v>617</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>526</v>
+        <v>660</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,13 +3227,13 @@
         <v>5157</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>224</v>
+        <v>618</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>527</v>
+        <v>683</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,13 +3241,13 @@
         <v>5158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,13 +3255,13 @@
         <v>5159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>610</v>
+        <v>557</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,13 +3269,13 @@
         <v>5161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>228</v>
+        <v>621</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>622</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,13 +3283,13 @@
         <v>5162</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>232</v>
+        <v>623</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,13 +3297,13 @@
         <v>5163</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>227</v>
+        <v>624</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,13 +3311,13 @@
         <v>5164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>625</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>531</v>
+        <v>626</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,13 +3325,13 @@
         <v>5165</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>225</v>
+        <v>627</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,13 +3339,13 @@
         <v>5166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,13 +3353,13 @@
         <v>5168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,13 +3367,13 @@
         <v>5169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>234</v>
+        <v>661</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>612</v>
+        <v>662</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,13 +3381,13 @@
         <v>5170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>613</v>
+        <v>559</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,13 +3395,13 @@
         <v>5171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,13 +3409,13 @@
         <v>5172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,13 +3423,13 @@
         <v>5173</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>614</v>
+        <v>560</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,13 +3437,13 @@
         <v>5175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>615</v>
+        <v>561</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,13 +3451,13 @@
         <v>5176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>240</v>
+        <v>684</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,13 +3465,13 @@
         <v>5177</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,13 +3479,13 @@
         <v>5178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,13 +3493,13 @@
         <v>5179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,13 +3507,13 @@
         <v>5181</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,13 +3521,13 @@
         <v>5182</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,13 +3535,13 @@
         <v>5183</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,13 +3549,13 @@
         <v>5184</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,13 +3563,13 @@
         <v>5185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,13 +3577,13 @@
         <v>5186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>249</v>
+        <v>685</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,13 +3591,13 @@
         <v>5187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,13 +3605,13 @@
         <v>5188</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,13 +3619,13 @@
         <v>5189</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>531</v>
+        <v>664</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,13 +3633,13 @@
         <v>5210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,13 +3647,13 @@
         <v>5212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,13 +3661,13 @@
         <v>5216</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,13 +3675,13 @@
         <v>5218</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,13 +3689,13 @@
         <v>5219</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>618</v>
+        <v>564</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,13 +3703,13 @@
         <v>5220</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,13 +3717,13 @@
         <v>5221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,13 +3731,13 @@
         <v>5223</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>620</v>
+        <v>566</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,13 +3745,13 @@
         <v>5224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,13 +3759,13 @@
         <v>5225</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,13 +3773,13 @@
         <v>5226</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,13 +3787,13 @@
         <v>5227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,13 +3801,13 @@
         <v>5228</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,13 +3815,13 @@
         <v>5230</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,13 +3829,13 @@
         <v>5231</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,13 +3843,13 @@
         <v>5232</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,13 +3857,13 @@
         <v>5233</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3805,13 +3871,13 @@
         <v>5234</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,13 +3885,13 @@
         <v>5235</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>622</v>
+        <v>568</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,13 +3899,13 @@
         <v>5237</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3847,13 +3913,13 @@
         <v>5238</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,13 +3927,13 @@
         <v>5240</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,13 +3941,13 @@
         <v>5242</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,13 +3955,13 @@
         <v>5244</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,13 +3969,13 @@
         <v>5246</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,13 +3983,13 @@
         <v>5247</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,13 +3997,13 @@
         <v>5249</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>624</v>
+        <v>570</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,13 +4011,13 @@
         <v>5250</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,13 +4025,13 @@
         <v>5251</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,13 +4039,13 @@
         <v>5252</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,13 +4053,13 @@
         <v>5254</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,13 +4067,13 @@
         <v>5256</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4015,13 +4081,13 @@
         <v>5260</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,13 +4095,13 @@
         <v>5264</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4043,13 +4109,13 @@
         <v>5272</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4057,13 +4123,13 @@
         <v>5274</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,13 +4137,13 @@
         <v>5275</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,13 +4151,13 @@
         <v>5276</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,13 +4165,13 @@
         <v>5277</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,13 +4179,13 @@
         <v>5278</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,13 +4193,13 @@
         <v>5279</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4141,13 +4207,13 @@
         <v>5281</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,13 +4221,13 @@
         <v>5284</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,13 +4235,13 @@
         <v>5286</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,13 +4249,13 @@
         <v>5288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,13 +4263,13 @@
         <v>5291</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>628</v>
+        <v>573</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,13 +4277,13 @@
         <v>5292</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4225,13 +4291,13 @@
         <v>5293</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,13 +4305,13 @@
         <v>5294</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4253,13 +4319,13 @@
         <v>5296</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,13 +4333,13 @@
         <v>5297</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,13 +4347,13 @@
         <v>5299</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>303</v>
+        <v>646</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4361,13 @@
         <v>5300</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>304</v>
+        <v>648</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,13 +4375,13 @@
         <v>5301</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>305</v>
+        <v>650</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,13 +4389,13 @@
         <v>5302</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>306</v>
+        <v>652</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>31</v>
+        <v>653</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,13 +4403,13 @@
         <v>5304</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>307</v>
+        <v>654</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,13 +4417,13 @@
         <v>5305</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,13 +4431,13 @@
         <v>5306</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,13 +4445,13 @@
         <v>5307</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,13 +4459,13 @@
         <v>5308</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4407,13 +4473,13 @@
         <v>5309</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,13 +4487,13 @@
         <v>5310</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,13 +4501,13 @@
         <v>5311</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>635</v>
+        <v>577</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,13 +4515,13 @@
         <v>5312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>313</v>
+        <v>666</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>34</v>
+        <v>667</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,13 +4529,13 @@
         <v>5313</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>314</v>
+        <v>668</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,13 +4543,13 @@
         <v>5314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,13 +4557,13 @@
         <v>5315</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,13 +4571,13 @@
         <v>5316</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,13 +4585,13 @@
         <v>5317</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,13 +4599,13 @@
         <v>5318</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>645</v>
+        <v>585</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>646</v>
+        <v>586</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,13 +4613,13 @@
         <v>5319</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>647</v>
+        <v>587</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,13 +4627,13 @@
         <v>5321</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,13 +4641,13 @@
         <v>5323</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,13 +4655,13 @@
         <v>5324</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4603,13 +4669,13 @@
         <v>5325</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>318</v>
+        <v>686</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>555</v>
+        <v>687</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>522</v>
+        <v>682</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4617,13 +4683,13 @@
         <v>5326</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>616</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,13 +4697,13 @@
         <v>5327</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,13 +4711,13 @@
         <v>5329</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>651</v>
+        <v>590</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,13 +4725,13 @@
         <v>5330</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>652</v>
+        <v>591</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,13 +4739,13 @@
         <v>5331</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,13 +4753,13 @@
         <v>5332</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,13 +4767,13 @@
         <v>5334</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,13 +4781,13 @@
         <v>5336</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,13 +4795,13 @@
         <v>5337</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,13 +4809,13 @@
         <v>5338</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4757,13 +4823,13 @@
         <v>5340</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,13 +4837,13 @@
         <v>5342</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,13 +4851,13 @@
         <v>5344</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,13 +4865,13 @@
         <v>5346</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,13 +4879,13 @@
         <v>5347</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,13 +4893,13 @@
         <v>5363</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4841,13 +4907,13 @@
         <v>5365</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,13 +4921,13 @@
         <v>5373</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,13 +4935,13 @@
         <v>5375</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,13 +4949,13 @@
         <v>5377</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,13 +4963,13 @@
         <v>5379</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,13 +4977,13 @@
         <v>5381</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,13 +4991,13 @@
         <v>5383</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,13 +5005,13 @@
         <v>5385</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,13 +5019,13 @@
         <v>5387</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,13 +5033,13 @@
         <v>5388</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,993 +5047,993 @@
         <v>5389</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>5389</v>
+        <v>5391</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>657</v>
+        <v>155</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>623</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>5391</v>
+        <v>5393</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>5393</v>
+        <v>5395</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>5395</v>
+        <v>5398</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>5398</v>
+        <v>5400</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>5400</v>
+        <v>5428</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>348</v>
+        <v>191</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>559</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>104</v>
+        <v>544</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>5429</v>
+        <v>5430</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>597</v>
+        <v>126</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>116</v>
+        <v>595</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>5432</v>
+        <v>5433</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>658</v>
+        <v>100</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>5433</v>
+        <v>5434</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>5434</v>
+        <v>5435</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>5435</v>
+        <v>5436</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>161</v>
+        <v>628</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>5438</v>
+        <v>5440</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>5444</v>
+        <v>5448</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>5448</v>
+        <v>5450</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>5450</v>
+        <v>5452</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>5454</v>
+        <v>5456</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>5456</v>
+        <v>5458</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>559</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>150</v>
+        <v>465</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>5460</v>
+        <v>5461</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>5461</v>
+        <v>5462</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>476</v>
+        <v>330</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>5465</v>
+        <v>5466</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>5469</v>
+        <v>5472</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>5472</v>
+        <v>5473</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>180</v>
+        <v>673</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>5473</v>
+        <v>5474</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>14</v>
+        <v>674</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>15</v>
+        <v>675</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>16</v>
+        <v>676</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>5476</v>
+        <v>5477</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>5477</v>
+        <v>5479</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>5480</v>
+        <v>5481</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>378</v>
+        <v>688</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>107</v>
+        <v>689</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>519</v>
+        <v>682</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>5482</v>
+        <v>5483</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>659</v>
+        <v>27</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>28</v>
+        <v>677</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>143</v>
+        <v>520</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>5485</v>
+        <v>5486</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>5486</v>
+        <v>5487</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>564</v>
+        <v>612</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>660</v>
+        <v>111</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>5490</v>
+        <v>5491</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>118</v>
+        <v>521</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>525</v>
+        <v>678</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>5491</v>
+        <v>5492</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>389</v>
+        <v>690</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>566</v>
+        <v>691</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>567</v>
+        <v>682</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>5493</v>
+        <v>5494</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>661</v>
+        <v>522</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>520</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>5494</v>
+        <v>5495</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>569</v>
+        <v>112</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>5496</v>
+        <v>5497</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>5497</v>
+        <v>5498</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>571</v>
+        <v>25</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>544</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>5498</v>
+        <v>5499</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>26</v>
+        <v>599</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>23</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>5499</v>
+        <v>5520</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>616</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>5521</v>
+        <v>5522</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>664</v>
+        <v>161</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>520</v>
+        <v>678</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>5522</v>
+        <v>5523</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>170</v>
+        <v>679</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>5524</v>
+        <v>5525</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>5525</v>
+        <v>5526</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>5526</v>
+        <v>5527</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>616</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>5527</v>
+        <v>5528</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>154</v>
+        <v>659</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +6041,13 @@
         <v>5529</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,13 +6055,13 @@
         <v>5530</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>163</v>
+        <v>658</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,13 +6069,13 @@
         <v>5531</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,1189 +6083,1301 @@
         <v>5533</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>408</v>
+        <v>637</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>409</v>
+        <v>644</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>127</v>
+        <v>639</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>182</v>
+        <v>640</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>616</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>5543</v>
+        <v>5540</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>5544</v>
+        <v>5541</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>5546</v>
+        <v>5542</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>478</v>
+        <v>692</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>623</v>
+        <v>569</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>5565</v>
+        <v>5543</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>5566</v>
+        <v>5544</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>5570</v>
+        <v>5545</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>418</v>
+        <v>656</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>5571</v>
+        <v>5546</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>174</v>
+        <v>525</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>5572</v>
+        <v>5565</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>5573</v>
+        <v>5566</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>5574</v>
+        <v>5570</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>130</v>
+        <v>603</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>5575</v>
+        <v>5571</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>5578</v>
+        <v>5572</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>5579</v>
+        <v>5573</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>5580</v>
+        <v>5574</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>474</v>
+        <v>123</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>5581</v>
+        <v>5575</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>5582</v>
+        <v>5576</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>426</v>
+        <v>629</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>121</v>
+        <v>630</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>5583</v>
+        <v>5577</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>427</v>
+        <v>631</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>125</v>
+        <v>632</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>5584</v>
+        <v>5578</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>5585</v>
+        <v>5579</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>5586</v>
+        <v>5580</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>623</v>
+        <v>488</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>5587</v>
+        <v>5581</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>5589</v>
+        <v>5582</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>470</v>
+        <v>391</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>667</v>
+        <v>114</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>668</v>
+        <v>488</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>5590</v>
+        <v>5583</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>669</v>
+        <v>118</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>668</v>
+        <v>488</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>5591</v>
+        <v>5584</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>670</v>
+        <v>117</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>668</v>
+        <v>488</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>5593</v>
+        <v>5585</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>38</v>
+        <v>468</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>668</v>
+        <v>517</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>5598</v>
+        <v>5586</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>144</v>
+        <v>641</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>5700</v>
+        <v>5587</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>5848</v>
+        <v>5589</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>100</v>
+        <v>604</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>23</v>
+        <v>605</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>5849</v>
+        <v>5590</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>671</v>
+        <v>606</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>5850</v>
+        <v>5591</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>49</v>
+        <v>607</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>5851</v>
+        <v>5592</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>436</v>
+        <v>642</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>437</v>
+        <v>643</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>5852</v>
+        <v>5593</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>493</v>
+        <v>35</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>5853</v>
+        <v>5598</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>497</v>
+        <v>136</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>5854</v>
+        <v>5700</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>5855</v>
+        <v>5848</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>5856</v>
+        <v>5849</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>50</v>
+        <v>608</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>5857</v>
+        <v>5850</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>5858</v>
+        <v>5851</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>5859</v>
+        <v>5852</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>5860</v>
+        <v>5853</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>5861</v>
+        <v>5854</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>5862</v>
+        <v>5855</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>5863</v>
+        <v>5856</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>5864</v>
+        <v>5857</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>5865</v>
+        <v>5858</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>5866</v>
+        <v>5859</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>498</v>
+        <v>37</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>5867</v>
+        <v>5860</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>5868</v>
+        <v>5861</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>5869</v>
+        <v>5862</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>5873</v>
+        <v>5863</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>5874</v>
+        <v>5864</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>5875</v>
+        <v>5865</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>5876</v>
+        <v>5866</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>5877</v>
+        <v>5867</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>496</v>
+        <v>60</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>5901</v>
+        <v>5868</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>111</v>
+        <v>459</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>5902</v>
+        <v>5869</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>668</v>
+        <v>527</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>5903</v>
+        <v>5873</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>672</v>
+        <v>457</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>5904</v>
+        <v>5874</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>488</v>
+        <v>39</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>673</v>
+        <v>39</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>5935</v>
+        <v>5875</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>489</v>
+        <v>38</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>501</v>
+        <v>38</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>5936</v>
+        <v>5876</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>623</v>
+        <v>526</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>5937</v>
+        <v>5877</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>5941</v>
+        <v>5901</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>5942</v>
+        <v>5902</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>5943</v>
+        <v>5903</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>53</v>
+        <v>609</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>5944</v>
+        <v>5904</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>54</v>
+        <v>610</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>5953</v>
+        <v>5935</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>5954</v>
+        <v>5936</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>5955</v>
+        <v>5937</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>57</v>
+        <v>467</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>5956</v>
+        <v>5941</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>5957</v>
+        <v>5942</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>5958</v>
+        <v>5943</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>5959</v>
+        <v>5944</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>5963</v>
+        <v>5953</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>5965</v>
+        <v>5954</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>24</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>91044</v>
+        <v>5955</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>508</v>
+        <v>426</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>509</v>
+        <v>54</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>91045</v>
+        <v>5956</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>511</v>
+        <v>55</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>91046</v>
+        <v>5957</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>513</v>
+        <v>58</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
+        <v>5958</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>5959</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>5963</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>5965</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>5970</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>91044</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>91045</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>91046</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>91047</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>560</v>
+      <c r="B344" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D177C7-111B-43EB-8851-1B6EE755C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867371B-049C-45DF-942A-281BE6E86D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1998,9 +1998,6 @@
     <t>FZK A07 (vězeňský)</t>
   </si>
   <si>
-    <t>FSC Żuk A-07 ězeňský mikrobus</t>
-  </si>
-  <si>
     <t>Волга ГАЗ-24 Policejní</t>
   </si>
   <si>
@@ -2113,6 +2110,9 @@
   </si>
   <si>
     <t>Souprava metra 81-709 Ečs</t>
+  </si>
+  <si>
+    <t>FSC Żuk A-07 Vězeňský mikrobus</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2553,7 @@
   <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,13 +2849,13 @@
         <v>5059</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
         <v>617</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>487</v>
@@ -3230,10 +3230,10 @@
         <v>618</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,10 +3367,10 @@
         <v>5169</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>487</v>
@@ -3451,13 +3451,13 @@
         <v>5176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>223</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>562</v>
@@ -3577,13 +3577,13 @@
         <v>5186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
         <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>487</v>
@@ -4126,7 +4126,7 @@
         <v>263</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>487</v>
@@ -4515,10 +4515,10 @@
         <v>5312</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>562</v>
@@ -4529,10 +4529,10 @@
         <v>5313</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>487</v>
@@ -4588,7 +4588,7 @@
         <v>584</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>562</v>
@@ -4616,7 +4616,7 @@
         <v>587</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>487</v>
@@ -4669,13 +4669,13 @@
         <v>5325</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>291</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>487</v>
@@ -5554,7 +5554,7 @@
         <v>339</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>519</v>
@@ -5568,7 +5568,7 @@
         <v>340</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>519</v>
@@ -5582,7 +5582,7 @@
         <v>341</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>519</v>
@@ -5596,7 +5596,7 @@
         <v>342</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>519</v>
@@ -5649,13 +5649,13 @@
         <v>5481</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="D221" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,7 +5694,7 @@
         <v>348</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>487</v>
@@ -5795,7 +5795,7 @@
         <v>521</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,13 +5803,13 @@
         <v>5492</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="D232" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,7 +5949,7 @@
         <v>161</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>366</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>519</v>
@@ -6030,7 +6030,7 @@
         <v>310</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>569</v>
@@ -6058,7 +6058,7 @@
         <v>602</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>569</v>
@@ -6201,7 +6201,7 @@
         <v>167</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,10 +6209,10 @@
         <v>5542</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>569</v>
@@ -6254,7 +6254,7 @@
         <v>656</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>657</v>
+        <v>695</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>569</v>
@@ -7290,7 +7290,7 @@
         <v>431</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>23</v>
@@ -7304,7 +7304,7 @@
         <v>432</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>23</v>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867371B-049C-45DF-942A-281BE6E86D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF55A3-08CA-4871-AB1C-F83CEFEEE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="697">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -1668,30 +1668,18 @@
     <t>Tatra T1</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Tramvaj</t>
   </si>
   <si>
     <t>Tatra T2</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>Tatra T3</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
     <t>Tatra T6B5</t>
   </si>
   <si>
-    <t>T6B5</t>
-  </si>
-  <si>
     <t>ЗИЛ-130 Valník</t>
   </si>
   <si>
@@ -2113,6 +2101,21 @@
   </si>
   <si>
     <t>FSC Żuk A-07 Vězeňský mikrobus</t>
+  </si>
+  <si>
+    <t>Rnt AGK</t>
+  </si>
+  <si>
+    <t>Renault AGK S plachtou</t>
+  </si>
+  <si>
+    <t>Rnt AGK cisterna</t>
+  </si>
+  <si>
+    <t>Renault AGK Cisterna</t>
+  </si>
+  <si>
+    <t>Tatra KT8D5</t>
   </si>
 </sst>
 </file>
@@ -2550,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,13 +2852,13 @@
         <v>5059</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,10 +3093,10 @@
         <v>546</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3104,13 @@
         <v>5123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3118,13 @@
         <v>5125</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,13 +3132,13 @@
         <v>5127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,10 +3174,10 @@
         <v>5152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>485</v>
@@ -3185,10 +3188,10 @@
         <v>5154</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>481</v>
@@ -3199,10 +3202,10 @@
         <v>5155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>488</v>
@@ -3213,10 +3216,10 @@
         <v>5156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>487</v>
@@ -3227,13 +3230,13 @@
         <v>5157</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,7 +3244,7 @@
         <v>5158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>489</v>
@@ -3255,10 +3258,10 @@
         <v>5159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>485</v>
@@ -3269,10 +3272,10 @@
         <v>5161</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>488</v>
@@ -3283,10 +3286,10 @@
         <v>5162</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>481</v>
@@ -3297,7 +3300,7 @@
         <v>5163</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>490</v>
@@ -3311,10 +3314,10 @@
         <v>5164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>487</v>
@@ -3325,7 +3328,7 @@
         <v>5165</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>492</v>
@@ -3367,10 +3370,10 @@
         <v>5169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>487</v>
@@ -3384,7 +3387,7 @@
         <v>212</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>481</v>
@@ -3426,7 +3429,7 @@
         <v>215</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>485</v>
@@ -3440,7 +3443,7 @@
         <v>216</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>481</v>
@@ -3451,13 +3454,13 @@
         <v>5176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,10 +3555,10 @@
         <v>223</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3580,13 @@
         <v>5186</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3597,7 @@
         <v>225</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>481</v>
@@ -3622,7 +3625,7 @@
         <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>487</v>
@@ -3692,7 +3695,7 @@
         <v>232</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>485</v>
@@ -3706,7 +3709,7 @@
         <v>233</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>481</v>
@@ -3734,7 +3737,7 @@
         <v>235</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>481</v>
@@ -3818,7 +3821,7 @@
         <v>241</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>481</v>
@@ -3888,7 +3891,7 @@
         <v>246</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>481</v>
@@ -3905,7 +3908,7 @@
         <v>30</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,7 +3978,7 @@
         <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,7 +4003,7 @@
         <v>254</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>481</v>
@@ -4126,7 +4129,7 @@
         <v>263</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>487</v>
@@ -4140,7 +4143,7 @@
         <v>506</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>485</v>
@@ -4168,7 +4171,7 @@
         <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>481</v>
@@ -4266,7 +4269,7 @@
         <v>272</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>485</v>
@@ -4280,7 +4283,7 @@
         <v>273</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>481</v>
@@ -4347,10 +4350,10 @@
         <v>5299</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>504</v>
@@ -4361,10 +4364,10 @@
         <v>5300</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>485</v>
@@ -4375,10 +4378,10 @@
         <v>5301</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>481</v>
@@ -4389,10 +4392,10 @@
         <v>5302</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>22</v>
@@ -4403,13 +4406,13 @@
         <v>5304</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,7 +4423,7 @@
         <v>280</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>485</v>
@@ -4462,7 +4465,7 @@
         <v>280</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>485</v>
@@ -4490,7 +4493,7 @@
         <v>281</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>481</v>
@@ -4504,10 +4507,10 @@
         <v>282</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,13 +4518,13 @@
         <v>5312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,10 +4532,10 @@
         <v>5313</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>487</v>
@@ -4543,10 +4546,10 @@
         <v>5314</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>481</v>
@@ -4557,10 +4560,10 @@
         <v>5315</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>485</v>
@@ -4571,10 +4574,10 @@
         <v>5316</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>484</v>
@@ -4585,13 +4588,13 @@
         <v>5317</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,10 +4602,10 @@
         <v>5318</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>491</v>
@@ -4613,10 +4616,10 @@
         <v>5319</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>487</v>
@@ -4644,7 +4647,7 @@
         <v>284</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>485</v>
@@ -4669,13 +4672,13 @@
         <v>5325</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4686,10 +4689,10 @@
         <v>286</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4714,7 +4717,7 @@
         <v>288</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>481</v>
@@ -4728,7 +4731,7 @@
         <v>289</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>485</v>
@@ -4756,7 +4759,7 @@
         <v>291</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>487</v>
@@ -4784,7 +4787,7 @@
         <v>293</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>481</v>
@@ -4798,7 +4801,7 @@
         <v>294</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>485</v>
@@ -4907,13 +4910,13 @@
         <v>5365</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>594</v>
+        <v>696</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,7 +5028,7 @@
         <v>178</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,7 +5193,7 @@
         <v>193</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>481</v>
@@ -5246,7 +5249,7 @@
         <v>319</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>517</v>
@@ -5554,7 +5557,7 @@
         <v>339</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>519</v>
@@ -5568,7 +5571,7 @@
         <v>340</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>519</v>
@@ -5582,7 +5585,7 @@
         <v>341</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>519</v>
@@ -5596,7 +5599,7 @@
         <v>342</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>519</v>
@@ -5649,13 +5652,13 @@
         <v>5481</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5666,7 +5669,7 @@
         <v>346</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>481</v>
@@ -5694,7 +5697,7 @@
         <v>348</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>487</v>
@@ -5722,7 +5725,7 @@
         <v>350</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>505</v>
@@ -5736,7 +5739,7 @@
         <v>351</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>505</v>
@@ -5764,7 +5767,7 @@
         <v>353</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>485</v>
@@ -5795,7 +5798,7 @@
         <v>521</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,13 +5806,13 @@
         <v>5492</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5820,7 +5823,7 @@
         <v>356</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>485</v>
@@ -5904,7 +5907,7 @@
         <v>362</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>481</v>
@@ -5918,10 +5921,10 @@
         <v>363</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5932,7 +5935,7 @@
         <v>364</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>485</v>
@@ -5949,7 +5952,7 @@
         <v>161</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,7 +5963,7 @@
         <v>366</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>519</v>
@@ -6005,7 +6008,7 @@
         <v>33</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6033,10 @@
         <v>310</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6044,10 +6047,10 @@
         <v>371</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,13 +6058,13 @@
         <v>5530</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6086,10 +6089,10 @@
         <v>442</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,13 +6100,13 @@
         <v>5534</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,13 +6114,13 @@
         <v>5535</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,10 +6131,10 @@
         <v>373</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,10 +6145,10 @@
         <v>374</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,7 +6204,7 @@
         <v>167</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,13 +6212,13 @@
         <v>5542</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,7 +6232,7 @@
         <v>181</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,7 +6246,7 @@
         <v>179</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,13 +6254,13 @@
         <v>5545</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6271,7 +6274,7 @@
         <v>525</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,7 +6313,7 @@
         <v>383</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>481</v>
@@ -6391,10 +6394,10 @@
         <v>5576</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>488</v>
@@ -6405,10 +6408,10 @@
         <v>5577</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>488</v>
@@ -6534,10 +6537,10 @@
         <v>445</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,10 +6565,10 @@
         <v>435</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6579,10 @@
         <v>395</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6590,10 +6593,10 @@
         <v>436</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,13 +6604,13 @@
         <v>5592</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,7 +6624,7 @@
         <v>35</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6674,7 +6677,7 @@
         <v>437</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>517</v>
@@ -7055,7 +7058,7 @@
         <v>34</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7066,10 +7069,10 @@
         <v>419</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7080,10 +7083,10 @@
         <v>453</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,7 +7114,7 @@
         <v>528</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,7 +7293,7 @@
         <v>431</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>23</v>
@@ -7304,7 +7307,7 @@
         <v>432</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>23</v>
@@ -7315,10 +7318,10 @@
         <v>5970</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>517</v>
@@ -7326,41 +7329,41 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>91044</v>
+        <v>5022</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>473</v>
+        <v>692</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>474</v>
+        <v>693</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>91045</v>
+        <v>5028</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>475</v>
+        <v>694</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>476</v>
+        <v>695</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>91046</v>
+        <v>91044</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>518</v>
@@ -7368,15 +7371,43 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
+        <v>91045</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>91046</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>91047</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>518</v>
       </c>
     </row>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF55A3-08CA-4871-AB1C-F83CEFEEE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A03C67-7404-4E70-9E4A-35A421983979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="874">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -2116,6 +2116,537 @@
   </si>
   <si>
     <t>Tatra KT8D5</t>
+  </si>
+  <si>
+    <t>Tatra T87</t>
+  </si>
+  <si>
+    <t>Tatra 87</t>
+  </si>
+  <si>
+    <t>Gaz Policija</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Policejní</t>
+  </si>
+  <si>
+    <t>Vězeňský autobus Gaz</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>Sanitka Gaz AA 55</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Sanitka</t>
+  </si>
+  <si>
+    <t>Sanitka AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Sanitka</t>
+  </si>
+  <si>
+    <t>Autobus AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Autobus</t>
+  </si>
+  <si>
+    <t>AMO-15 na sypké materiály</t>
+  </si>
+  <si>
+    <t>AMO-15 s krytou korbou</t>
+  </si>
+  <si>
+    <t>Hasičský vůz AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>Průmyslový tahač AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Průmyslový tahač</t>
+  </si>
+  <si>
+    <t>Popelářský vůz AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Popelářský vůz</t>
+  </si>
+  <si>
+    <t>Popela</t>
+  </si>
+  <si>
+    <t>Nákladní vůz AMO-15 na štěrk</t>
+  </si>
+  <si>
+    <t>AMO-F15 Nákladní vůz na štěrk</t>
+  </si>
+  <si>
+    <t>Cisternový vůz AMO-15 na ropu</t>
+  </si>
+  <si>
+    <t>AMO-F15 Cisternový vůz</t>
+  </si>
+  <si>
+    <t>Fekální vůz AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Fekální vůz</t>
+  </si>
+  <si>
+    <t>Cisternový vůz AMO-15 na vodu</t>
+  </si>
+  <si>
+    <t>AMO-F15 Vodní cisterna</t>
+  </si>
+  <si>
+    <t>AMO-15 s otevřenou korbou</t>
+  </si>
+  <si>
+    <t>Policejní autobus AMO-15</t>
+  </si>
+  <si>
+    <t>Chladicí vůz AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Chladicí vůz</t>
+  </si>
+  <si>
+    <t>Domíchávač AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Domíchávač</t>
+  </si>
+  <si>
+    <t>Sněžný pluh AMO-15</t>
+  </si>
+  <si>
+    <t>AMO-F15 Sněžný pluh</t>
+  </si>
+  <si>
+    <t>Sanitka GAZ M1</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA M1 Sanitka</t>
+  </si>
+  <si>
+    <t>Santika</t>
+  </si>
+  <si>
+    <t>Sanitka GAZ M20</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA M20 Sanitka</t>
+  </si>
+  <si>
+    <t>Stalinets S-60</t>
+  </si>
+  <si>
+    <t>Stalinec S-60</t>
+  </si>
+  <si>
+    <t>Stalinets S-65</t>
+  </si>
+  <si>
+    <t>Stalinec S-65</t>
+  </si>
+  <si>
+    <t>Skd 706 RO</t>
+  </si>
+  <si>
+    <t>Škoda 706 RO</t>
+  </si>
+  <si>
+    <t>Kombajn Stalinets-1</t>
+  </si>
+  <si>
+    <t>Stalinec S-1</t>
+  </si>
+  <si>
+    <t>Kombajn Stalinets-6</t>
+  </si>
+  <si>
+    <t>Stalinec S-6</t>
+  </si>
+  <si>
+    <t>Gaz AA PMG-1</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA PMG-1</t>
+  </si>
+  <si>
+    <t>Gaz AA musorovoz</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Musorovoz</t>
+  </si>
+  <si>
+    <t>Gaz AA 410</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA 410</t>
+  </si>
+  <si>
+    <t>Cisternový vůz Gaz AA na ropu s přívěsem</t>
+  </si>
+  <si>
+    <t>Gaz AA s otevřenou korbou</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA S otevřenou korbou</t>
+  </si>
+  <si>
+    <t>Gaz AA dřevěný</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Dřevěný</t>
+  </si>
+  <si>
+    <t>GAZ M1</t>
+  </si>
+  <si>
+    <t>GAZ 11-73</t>
+  </si>
+  <si>
+    <t>ГАЗ-11-73</t>
+  </si>
+  <si>
+    <t>GAZ A</t>
+  </si>
+  <si>
+    <t>ГАЗ-A</t>
+  </si>
+  <si>
+    <t>GAZ M20</t>
+  </si>
+  <si>
+    <t>ГАЗ-M20</t>
+  </si>
+  <si>
+    <t>Gaz AA Vnichi</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Vnichi</t>
+  </si>
+  <si>
+    <t>Gaz AA Cran KS-1</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA KS-1 AJ</t>
+  </si>
+  <si>
+    <t>Domíchávač Gaz AA</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Domíchávač</t>
+  </si>
+  <si>
+    <t>Gaz AA do sněhu</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Do sněhu</t>
+  </si>
+  <si>
+    <t>AMO-F15 Na sypké materiály</t>
+  </si>
+  <si>
+    <t>AMO-F15 S krytou korbou</t>
+  </si>
+  <si>
+    <t>AMO-F15 S otevřenou korbou</t>
+  </si>
+  <si>
+    <t>AMO-F15 Vězeňský autobus</t>
+  </si>
+  <si>
+    <t>MAZ-200</t>
+  </si>
+  <si>
+    <t>Hasičský vůz MAZ-200</t>
+  </si>
+  <si>
+    <t>Popelářský vůz MAZ-200</t>
+  </si>
+  <si>
+    <t>MAZ-205</t>
+  </si>
+  <si>
+    <t>Cisternový vůz MAZ-200 na ropu</t>
+  </si>
+  <si>
+    <t>Fekální vůz MAZ-200</t>
+  </si>
+  <si>
+    <t>Cisternový vůz MAZ-200</t>
+  </si>
+  <si>
+    <t>MAZ-200 s otevřenou korbou</t>
+  </si>
+  <si>
+    <t>Chladicí vůz MAZ-200</t>
+  </si>
+  <si>
+    <t>MAZ-200 K-51</t>
+  </si>
+  <si>
+    <t>Domíchávač MAZ-200</t>
+  </si>
+  <si>
+    <t>MAZ-200V</t>
+  </si>
+  <si>
+    <t>MAZ-200V s krytou korbou</t>
+  </si>
+  <si>
+    <t>Cisternový vůz Gaz AA na ropu</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Cisterna</t>
+  </si>
+  <si>
+    <t>Fekální vůz Gaz AA</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Fekální vůz</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Cisterna s přívěsem</t>
+  </si>
+  <si>
+    <t>Cisternový vůz Gaz AA na vodu</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Vodní Cisterna</t>
+  </si>
+  <si>
+    <t>Cisternový Russo-Balt T40/65 na ropu</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Cisterna</t>
+  </si>
+  <si>
+    <t>Fekální vůz Russo-Balt T40/65</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Fekální vůz</t>
+  </si>
+  <si>
+    <t>Cisternový vůz Russo-Balt T40/65 na vodu</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Vodní cisterna</t>
+  </si>
+  <si>
+    <t>Cisternový vůz ZIS-5 na palivo/ropu</t>
+  </si>
+  <si>
+    <t>Fekální vůz ZIS-5</t>
+  </si>
+  <si>
+    <t>Cisternový vůz ZIS-5 na vodu</t>
+  </si>
+  <si>
+    <t>ГАЗ-M1</t>
+  </si>
+  <si>
+    <t>ГАЗ-M1 Policejní</t>
+  </si>
+  <si>
+    <t>ГАЗ-M20 Policejní</t>
+  </si>
+  <si>
+    <t>Gaz Bus 03-30</t>
+  </si>
+  <si>
+    <t>ГАЗ 03-30 Bus</t>
+  </si>
+  <si>
+    <t>Ik 30</t>
+  </si>
+  <si>
+    <t>Ikarus 30</t>
+  </si>
+  <si>
+    <t>Ik 60</t>
+  </si>
+  <si>
+    <t>Ikarus 60</t>
+  </si>
+  <si>
+    <t>Gaz AA</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA S plachtou</t>
+  </si>
+  <si>
+    <t>Gaz AA Хлеб</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Na chléb</t>
+  </si>
+  <si>
+    <t>Odpadový vůz Russo-Balt T40/65</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Odpadový vůz</t>
+  </si>
+  <si>
+    <t>Popelářský vůz Russo-Balt T40/65</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Popelářský vůz</t>
+  </si>
+  <si>
+    <t>Sklápěč Russo-Balt T40/65</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Na štěrk</t>
+  </si>
+  <si>
+    <t>ГАЗ-11-73 Policejní</t>
+  </si>
+  <si>
+    <t>ГАЗ-A Policejní</t>
+  </si>
+  <si>
+    <t>Chladicí vůz ZIS-5</t>
+  </si>
+  <si>
+    <t>Chladicí vůz Russo-Balt T40/65</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/66 Chladící vůz</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 na tekutý beton</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/66 Na tekutý beton</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 lesnický</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/66 Lesnický</t>
+  </si>
+  <si>
+    <t>Gaz AA Firetruck</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Hasičský vůz</t>
+  </si>
+  <si>
+    <t>Zis-5 Firetruck</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>Stalinec S-60 Traktor</t>
+  </si>
+  <si>
+    <t>Stalinec S-65 Traktor</t>
+  </si>
+  <si>
+    <t>МАЗ-200 S plachtou</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Hasičský vůz</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Popelářský vůz</t>
+  </si>
+  <si>
+    <t>МАЗ-205 Sklápěč</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Cisterna</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Fekální vůz</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Vodní Cisterna</t>
+  </si>
+  <si>
+    <t>МАЗ-200 S otevřenou korbou</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Chladicí vůz</t>
+  </si>
+  <si>
+    <t>МАЗ-200 K-51 AJ</t>
+  </si>
+  <si>
+    <t>МАЗ-200 Domíchávač</t>
+  </si>
+  <si>
+    <t>МАЗ-200V Na cement</t>
+  </si>
+  <si>
+    <t>МАЗ-200V S krytou korbou</t>
+  </si>
+  <si>
+    <t>МАЗ-200V Valník</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Cisterna</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Fekální vůz</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Vodní cisterna</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Chladící vůz</t>
+  </si>
+  <si>
+    <t>Popelářský vůz ZIS-5</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Popelářský vůz</t>
+  </si>
+  <si>
+    <t>Lékařský vůz Moskvič 400</t>
+  </si>
+  <si>
+    <t>Moskvič 400 Lékařský vůz</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 s krytou korbou</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 S krytou korbou</t>
+  </si>
+  <si>
+    <t>ZIS-5 s krytou korbou</t>
+  </si>
+  <si>
+    <t>ЗИС-5 S krytou korbou</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>Stalinec S-4</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 otevřený</t>
+  </si>
+  <si>
+    <t>Russo-Balt T40/65 Valník</t>
+  </si>
+  <si>
+    <t>ZIS-5 otevřený</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Valník</t>
   </si>
 </sst>
 </file>
@@ -2553,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,27 +3240,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>542</v>
+        <v>692</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>483</v>
+        <v>693</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>5041</v>
+        <v>5024</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>542</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>483</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>484</v>
@@ -2737,55 +3268,55 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5043</v>
+        <v>5028</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>694</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>543</v>
+        <v>695</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5045</v>
+        <v>5041</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5047</v>
+        <v>5043</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>543</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5049</v>
+        <v>5045</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>485</v>
@@ -2793,13 +3324,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>5051</v>
+        <v>5047</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>471</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>484</v>
@@ -2807,13 +3338,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5053</v>
+        <v>5049</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>472</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>485</v>
@@ -2821,13 +3352,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>5055</v>
+        <v>5051</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>484</v>
@@ -2835,13 +3366,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>5057</v>
+        <v>5053</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>485</v>
@@ -2849,69 +3380,69 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>5059</v>
+        <v>5055</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>675</v>
+        <v>191</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>676</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>677</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>544</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5063</v>
+        <v>5059</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>194</v>
+        <v>675</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>676</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>486</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>5065</v>
+        <v>5061</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>5089</v>
+        <v>5063</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>486</v>
@@ -2919,13 +3450,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5091</v>
+        <v>5065</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>486</v>
@@ -2933,13 +3464,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5093</v>
+        <v>5089</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>486</v>
@@ -2947,111 +3478,111 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5095</v>
+        <v>5091</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5097</v>
+        <v>5093</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>545</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5099</v>
+        <v>5095</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5103</v>
+        <v>5099</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>5107</v>
+        <v>5103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>5109</v>
+        <v>5105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -3059,13 +3590,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -3073,13 +3604,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
@@ -3087,41 +3618,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5121</v>
+        <v>5111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>546</v>
+        <v>207</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>546</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>547</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>5123</v>
+        <v>5113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>548</v>
+        <v>208</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>548</v>
+        <v>98</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>547</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>5125</v>
+        <v>5121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>547</v>
@@ -3129,13 +3660,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>5127</v>
+        <v>5123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>547</v>
@@ -3143,601 +3674,601 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5144</v>
+        <v>5125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>549</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>549</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>5148</v>
+        <v>5127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5152</v>
+        <v>5144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>609</v>
+        <v>209</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>610</v>
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>552</v>
+        <v>470</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>5157</v>
+        <v>5155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>677</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>489</v>
+        <v>655</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>5159</v>
+        <v>5157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>553</v>
+        <v>678</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>485</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>5161</v>
+        <v>5158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5162</v>
+        <v>5159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>490</v>
+        <v>618</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>210</v>
+        <v>621</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>493</v>
+        <v>622</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>623</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>492</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5169</v>
+        <v>5166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>656</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>657</v>
+        <v>493</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>555</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>656</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>493</v>
+        <v>657</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>556</v>
+        <v>493</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>679</v>
+        <v>215</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>677</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>218</v>
+        <v>679</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>495</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>488</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>128</v>
+        <v>496</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>5181</v>
+        <v>5178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>529</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>5182</v>
+        <v>5179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>530</v>
+        <v>128</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>658</v>
+        <v>530</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>129</v>
+        <v>531</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>680</v>
+        <v>223</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>497</v>
+        <v>658</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>677</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>559</v>
+        <v>129</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>226</v>
+        <v>680</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>659</v>
+        <v>559</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>5210</v>
+        <v>5188</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>5212</v>
+        <v>5189</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>659</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>5219</v>
+        <v>5216</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>561</v>
+        <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>113</v>
+        <v>560</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>5223</v>
+        <v>5220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>481</v>
@@ -3745,209 +4276,209 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>5224</v>
+        <v>5221</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>562</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>5230</v>
+        <v>5227</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>5231</v>
+        <v>5228</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>5232</v>
+        <v>5230</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>563</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>5233</v>
+        <v>5231</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>502</v>
+        <v>164</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>5235</v>
+        <v>5233</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>5237</v>
+        <v>5234</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>5238</v>
+        <v>5235</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>564</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>5240</v>
+        <v>5237</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>5242</v>
+        <v>5238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -3955,139 +4486,139 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>5244</v>
+        <v>5240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>5246</v>
+        <v>5242</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>565</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>5247</v>
+        <v>5244</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>5249</v>
+        <v>5246</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>566</v>
+        <v>180</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>5250</v>
+        <v>5247</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>94</v>
+        <v>566</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>5254</v>
+        <v>5251</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>5256</v>
+        <v>5252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>499</v>
@@ -4095,139 +4626,139 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>5264</v>
+        <v>5256</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>22</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>5272</v>
+        <v>5260</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>5274</v>
+        <v>5264</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>487</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>5275</v>
+        <v>5272</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>506</v>
+        <v>262</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>567</v>
+        <v>137</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>507</v>
+        <v>660</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>265</v>
+        <v>506</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>28</v>
+        <v>507</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>65</v>
+        <v>568</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>5281</v>
+        <v>5278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>5284</v>
+        <v>5279</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>486</v>
@@ -4235,13 +4766,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>5286</v>
+        <v>5281</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>486</v>
@@ -4249,83 +4780,83 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>5288</v>
+        <v>5284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>508</v>
+        <v>75</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>5291</v>
+        <v>5286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>569</v>
+        <v>76</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>5292</v>
+        <v>5288</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>5296</v>
+        <v>5293</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>504</v>
@@ -4333,27 +4864,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>5297</v>
+        <v>5294</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>96</v>
+        <v>510</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>5299</v>
+        <v>5296</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>642</v>
+        <v>276</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>643</v>
+        <v>511</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>504</v>
@@ -4361,119 +4892,119 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>5300</v>
+        <v>5297</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>644</v>
+        <v>277</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>645</v>
+        <v>96</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>5304</v>
+        <v>5301</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>280</v>
+        <v>648</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>278</v>
+        <v>650</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>512</v>
+        <v>651</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>13</v>
+        <v>571</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>279</v>
@@ -4487,363 +5018,363 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>573</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>661</v>
+        <v>281</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>663</v>
+        <v>282</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>664</v>
+        <v>573</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>665</v>
+        <v>577</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>5321</v>
+        <v>5318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>283</v>
+        <v>581</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>5323</v>
+        <v>5319</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>284</v>
+        <v>583</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>5324</v>
+        <v>5321</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>31</v>
+        <v>513</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>681</v>
+        <v>284</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>682</v>
+        <v>584</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>677</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>585</v>
+        <v>31</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>287</v>
+        <v>681</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>26</v>
+        <v>682</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>488</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>5329</v>
+        <v>5326</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>5330</v>
+        <v>5327</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>587</v>
+        <v>26</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>667</v>
+        <v>587</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>5334</v>
+        <v>5331</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>21</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>5336</v>
+        <v>5332</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>5337</v>
+        <v>5334</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>485</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>78</v>
+        <v>588</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>22</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>5340</v>
+        <v>5337</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>5342</v>
+        <v>5338</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -4851,27 +5382,27 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>5344</v>
+        <v>5340</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>516</v>
+        <v>79</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>5346</v>
+        <v>5342</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -4879,27 +5410,27 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>5347</v>
+        <v>5344</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>67</v>
+        <v>516</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>5363</v>
+        <v>5346</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>22</v>
@@ -4907,55 +5438,55 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>5365</v>
+        <v>5347</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>590</v>
+        <v>299</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>696</v>
+        <v>67</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>547</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>5373</v>
+        <v>5363</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>517</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>5375</v>
+        <v>5365</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>590</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>151</v>
+        <v>696</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>5377</v>
+        <v>5373</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>517</v>
@@ -4963,13 +5494,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>5379</v>
+        <v>5375</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>517</v>
@@ -4977,13 +5508,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>5381</v>
+        <v>5377</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>517</v>
@@ -4991,13 +5522,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>5383</v>
+        <v>5379</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>517</v>
@@ -5005,13 +5536,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>5385</v>
+        <v>5381</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>517</v>
@@ -5019,27 +5550,27 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>5387</v>
+        <v>5383</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>5388</v>
+        <v>5385</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>517</v>
@@ -5047,27 +5578,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>5389</v>
+        <v>5387</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>5391</v>
+        <v>5388</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>517</v>
@@ -5075,13 +5606,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>5393</v>
+        <v>5389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>517</v>
@@ -5089,13 +5620,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>5395</v>
+        <v>5391</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>517</v>
@@ -5103,13 +5634,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>5398</v>
+        <v>5393</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>517</v>
@@ -5117,13 +5648,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>5400</v>
+        <v>5395</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>517</v>
@@ -5131,139 +5662,139 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>5428</v>
+        <v>5398</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>5429</v>
+        <v>5400</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>544</v>
+        <v>152</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>5430</v>
+        <v>5428</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>5431</v>
+        <v>5429</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>109</v>
+        <v>544</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>5432</v>
+        <v>5430</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>591</v>
+        <v>126</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>5434</v>
+        <v>5432</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>5435</v>
+        <v>5433</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>5436</v>
+        <v>5434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>624</v>
+        <v>162</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>5438</v>
+        <v>5435</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>517</v>
@@ -5271,83 +5802,83 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>5440</v>
+        <v>5436</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>6</v>
+        <v>624</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>5442</v>
+        <v>5438</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>5444</v>
+        <v>5440</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>5448</v>
+        <v>5442</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>5450</v>
+        <v>5444</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>5452</v>
+        <v>5448</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>517</v>
@@ -5355,13 +5886,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>5454</v>
+        <v>5450</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>517</v>
@@ -5369,13 +5900,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>5456</v>
+        <v>5452</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>517</v>
@@ -5383,13 +5914,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>5458</v>
+        <v>5454</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>517</v>
@@ -5397,41 +5928,41 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>5460</v>
+        <v>5456</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>440</v>
+        <v>328</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>5461</v>
+        <v>5458</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>464</v>
+        <v>142</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>518</v>
@@ -5439,13 +5970,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>518</v>
@@ -5453,13 +5984,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>518</v>
@@ -5467,13 +5998,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>518</v>
@@ -5481,13 +6012,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>518</v>
@@ -5495,13 +6026,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>5467</v>
+        <v>5465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>518</v>
@@ -5509,13 +6040,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>5468</v>
+        <v>5466</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>518</v>
@@ -5523,13 +6054,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>5469</v>
+        <v>5467</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>518</v>
@@ -5537,41 +6068,41 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>5472</v>
+        <v>5468</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>5473</v>
+        <v>5469</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>668</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>5474</v>
+        <v>5472</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>669</v>
+        <v>171</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>519</v>
@@ -5579,13 +6110,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>5475</v>
+        <v>5473</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>519</v>
@@ -5593,13 +6124,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>519</v>
@@ -5607,13 +6138,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>5477</v>
+        <v>5475</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>170</v>
+        <v>670</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>519</v>
@@ -5621,447 +6152,447 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>5479</v>
+        <v>5476</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>127</v>
+        <v>671</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>5480</v>
+        <v>5477</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>683</v>
+        <v>344</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>684</v>
+        <v>127</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>677</v>
+        <v>485</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>5482</v>
+        <v>5480</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>592</v>
+        <v>102</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>347</v>
+        <v>683</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>488</v>
+        <v>677</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>5484</v>
+        <v>5482</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>672</v>
+        <v>592</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>5485</v>
+        <v>5483</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>520</v>
+        <v>27</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>5487</v>
+        <v>5485</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>608</v>
+        <v>520</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>101</v>
+        <v>607</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>673</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>5492</v>
+        <v>5490</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>685</v>
+        <v>354</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>686</v>
+        <v>111</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>677</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>485</v>
+        <v>673</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>357</v>
+        <v>685</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>522</v>
+        <v>686</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>112</v>
+        <v>594</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>484</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>524</v>
+        <v>112</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>5498</v>
+        <v>5496</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>25</v>
+        <v>523</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>5520</v>
+        <v>5498</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>596</v>
+        <v>25</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>558</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>5521</v>
+        <v>5499</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>5522</v>
+        <v>5520</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>161</v>
+        <v>596</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>5523</v>
+        <v>5521</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>674</v>
+        <v>597</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>5524</v>
+        <v>5522</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>519</v>
+        <v>673</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>132</v>
+        <v>674</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>5526</v>
+        <v>5524</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>5528</v>
+        <v>5526</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>654</v>
+        <v>33</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>631</v>
+        <v>146</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>565</v>
+        <v>517</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>598</v>
+        <v>310</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>565</v>
@@ -6069,27 +6600,27 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>74</v>
+        <v>631</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>5533</v>
+        <v>5530</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>442</v>
+        <v>598</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>565</v>
@@ -6097,27 +6628,27 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>5534</v>
+        <v>5531</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>633</v>
+        <v>372</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>634</v>
+        <v>74</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>640</v>
+        <v>442</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>565</v>
@@ -6125,13 +6656,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>373</v>
+        <v>633</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>565</v>
@@ -6139,13 +6670,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>374</v>
+        <v>640</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>565</v>
@@ -6153,97 +6684,97 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>120</v>
+        <v>635</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>173</v>
+        <v>636</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>673</v>
+        <v>519</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>5542</v>
+        <v>5540</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>687</v>
+        <v>377</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>688</v>
+        <v>32</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>5543</v>
+        <v>5541</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>380</v>
+        <v>687</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>179</v>
+        <v>688</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>565</v>
@@ -6251,13 +6782,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>652</v>
+        <v>379</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>691</v>
+        <v>181</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>565</v>
@@ -6265,13 +6796,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>5546</v>
+        <v>5544</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>525</v>
+        <v>179</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>565</v>
@@ -6279,111 +6810,111 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>5565</v>
+        <v>5545</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>381</v>
+        <v>652</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>121</v>
+        <v>691</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>5566</v>
+        <v>5546</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>119</v>
+        <v>525</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>5570</v>
+        <v>5565</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>599</v>
+        <v>121</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>5571</v>
+        <v>5566</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>166</v>
+        <v>599</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>5573</v>
+        <v>5571</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>5574</v>
+        <v>5572</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>488</v>
@@ -6391,13 +6922,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>5576</v>
+        <v>5574</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>625</v>
+        <v>387</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>626</v>
+        <v>123</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>488</v>
@@ -6405,13 +6936,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>627</v>
+        <v>388</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>628</v>
+        <v>124</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>488</v>
@@ -6419,13 +6950,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>5578</v>
+        <v>5576</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>110</v>
+        <v>626</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>488</v>
@@ -6433,13 +6964,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>5579</v>
+        <v>5577</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>433</v>
+        <v>627</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>438</v>
+        <v>628</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>488</v>
@@ -6447,13 +6978,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>5580</v>
+        <v>5578</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>488</v>
@@ -6461,13 +6992,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>5581</v>
+        <v>5579</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>115</v>
+        <v>438</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>488</v>
@@ -6475,13 +7006,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>5582</v>
+        <v>5580</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>114</v>
+        <v>439</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>488</v>
@@ -6489,13 +7020,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>5583</v>
+        <v>5581</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>488</v>
@@ -6503,13 +7034,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>5584</v>
+        <v>5582</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>488</v>
@@ -6517,83 +7048,83 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>468</v>
+        <v>118</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>5586</v>
+        <v>5584</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>637</v>
+        <v>117</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>168</v>
+        <v>468</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>5589</v>
+        <v>5586</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>5590</v>
+        <v>5587</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>602</v>
+        <v>168</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>601</v>
+        <v>491</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>5591</v>
+        <v>5589</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>601</v>
@@ -6601,13 +7132,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>5592</v>
+        <v>5590</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>638</v>
+        <v>395</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>601</v>
@@ -6615,13 +7146,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>5593</v>
+        <v>5591</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>35</v>
+        <v>603</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>601</v>
@@ -6629,97 +7160,97 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>5598</v>
+        <v>5592</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>397</v>
+        <v>638</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>136</v>
+        <v>639</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>5700</v>
+        <v>5593</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>486</v>
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>5848</v>
+        <v>5598</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>5849</v>
+        <v>5700</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>604</v>
+        <v>71</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>526</v>
+        <v>22</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>5852</v>
+        <v>5850</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>458</v>
+        <v>46</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>526</v>
@@ -6727,13 +7258,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>526</v>
@@ -6741,13 +7272,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>526</v>
@@ -6755,13 +7286,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>43</v>
+        <v>462</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>526</v>
@@ -6769,13 +7300,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>526</v>
@@ -6783,13 +7314,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>5857</v>
+        <v>5855</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>526</v>
@@ -6797,13 +7328,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>526</v>
@@ -6811,13 +7342,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>526</v>
@@ -6825,13 +7356,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>526</v>
@@ -6839,13 +7370,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>526</v>
@@ -6853,41 +7384,41 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>527</v>
@@ -6895,13 +7426,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>527</v>
@@ -6909,13 +7440,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>463</v>
+        <v>59</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>527</v>
@@ -6923,13 +7454,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>527</v>
@@ -6937,13 +7468,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>527</v>
@@ -6951,13 +7482,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>527</v>
@@ -6965,41 +7496,41 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>5873</v>
+        <v>5868</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>5874</v>
+        <v>5869</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>38</v>
+        <v>457</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>526</v>
@@ -7007,13 +7538,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>451</v>
+        <v>39</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>460</v>
+        <v>39</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>526</v>
@@ -7021,13 +7552,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>461</v>
+        <v>38</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>526</v>
@@ -7035,55 +7566,55 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>5901</v>
+        <v>5876</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>106</v>
+        <v>460</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>5902</v>
+        <v>5877</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>34</v>
+        <v>461</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>601</v>
+        <v>526</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>605</v>
+        <v>106</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>601</v>
+        <v>484</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>606</v>
+        <v>34</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>601</v>
@@ -7091,41 +7622,41 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>5935</v>
+        <v>5903</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>466</v>
+        <v>605</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>5936</v>
+        <v>5904</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>5937</v>
+        <v>5935</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>517</v>
@@ -7133,41 +7664,41 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>5941</v>
+        <v>5936</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>5942</v>
+        <v>5937</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>49</v>
+        <v>467</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>5943</v>
+        <v>5941</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>486</v>
@@ -7175,13 +7706,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>486</v>
@@ -7189,13 +7720,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>5953</v>
+        <v>5943</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>486</v>
@@ -7203,13 +7734,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>5954</v>
+        <v>5944</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>486</v>
@@ -7217,13 +7748,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>5955</v>
+        <v>5953</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>486</v>
@@ -7231,13 +7762,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>5956</v>
+        <v>5954</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>486</v>
@@ -7245,13 +7776,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>5957</v>
+        <v>5955</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>486</v>
@@ -7259,13 +7790,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>5958</v>
+        <v>5956</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>486</v>
@@ -7273,13 +7804,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>486</v>
@@ -7287,128 +7818,1402 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>5963</v>
+        <v>5958</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>689</v>
+        <v>57</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>5965</v>
+        <v>5959</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>690</v>
+        <v>56</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>5970</v>
+        <v>5963</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>629</v>
+        <v>431</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>517</v>
+        <v>23</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>5022</v>
+        <v>5965</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>692</v>
+        <v>432</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>5028</v>
+        <v>5970</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>694</v>
+        <v>629</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>695</v>
+        <v>630</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>91044</v>
+        <v>61068</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>473</v>
+        <v>836</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>474</v>
+        <v>837</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>91045</v>
+        <v>61069</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>475</v>
+        <v>838</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>476</v>
+        <v>839</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>91046</v>
+        <v>91001</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>477</v>
+        <v>705</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>478</v>
+        <v>706</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
+        <v>91002</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>91003</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>91004</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>91005</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>91006</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>91007</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>91008</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>91009</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>91010</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>91011</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>91012</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>91013</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>91014</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>91015</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>91016</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>91021</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>91022</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>91023</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>91032</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>91033</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>91036</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>91037</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>91038</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>91040</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>91044</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>91045</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>91046</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>91047</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>91056</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>91057</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>91058</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>91059</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>91060</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>91061</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>91068</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>91055</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>91072</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>91073</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>91074</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>91075</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>91076</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>91077</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>91109</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>91110</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>91111</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>91112</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>91113</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>91114</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>91115</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>91116</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>91117</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>91118</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>91119</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>91120</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>91121</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>91122</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>91123</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>91124</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>91125</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>91126</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>91127</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>91128</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>91129</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>91130</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>91131</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>91132</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>91135</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>91136</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>91137</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>91138</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>91142</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>91143</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>91144</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>91152</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>91153</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>91157</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>91158</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>91159</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>91165</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>91167</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>91169</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>91170</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>91192</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>91195</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>91196</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>91197</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>91211</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>91212</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>91221</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>91224</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>91225</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>91226</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A03C67-7404-4E70-9E4A-35A421983979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B1563-FEE7-4F61-B12A-E7B5D4439925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="928">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -105,9 +105,6 @@
     <t>IMV 2200D</t>
   </si>
   <si>
-    <t>МАЗ-503</t>
-  </si>
-  <si>
     <t>Roman 8135</t>
   </si>
   <si>
@@ -1572,9 +1569,6 @@
     <t>МАЗ-503 Sklápěč</t>
   </si>
   <si>
-    <t>МАЗ-504 na cement</t>
-  </si>
-  <si>
     <t>РАФ-977 Sanitka</t>
   </si>
   <si>
@@ -2283,9 +2277,6 @@
     <t>Gaz AA musorovoz</t>
   </si>
   <si>
-    <t>ГАЗ-AA Musorovoz</t>
-  </si>
-  <si>
     <t>Gaz AA 410</t>
   </si>
   <si>
@@ -2331,9 +2322,6 @@
     <t>Gaz AA Vnichi</t>
   </si>
   <si>
-    <t>ГАЗ-AA Vnichi</t>
-  </si>
-  <si>
     <t>Gaz AA Cran KS-1</t>
   </si>
   <si>
@@ -2647,6 +2635,180 @@
   </si>
   <si>
     <t>ЗИС-5 Valník</t>
+  </si>
+  <si>
+    <t>МАЗ-503 Cisterna</t>
+  </si>
+  <si>
+    <t>МАЗ-504 Na cement</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Popelářský vůz</t>
+  </si>
+  <si>
+    <t>ZIS-5 na hospodářská zvířata</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Na hospodářská zvířata</t>
+  </si>
+  <si>
+    <t>ГАЗ-AA Chladící vůz</t>
+  </si>
+  <si>
+    <t>ZIS-5 do sněhu</t>
+  </si>
+  <si>
+    <t>ЗИС-5 Do sněhu</t>
+  </si>
+  <si>
+    <t>Ya-12D open</t>
+  </si>
+  <si>
+    <t>Ya-12D Valník</t>
+  </si>
+  <si>
+    <t>Ya-12D covered</t>
+  </si>
+  <si>
+    <t>Ya-12D S plachtou</t>
+  </si>
+  <si>
+    <t>YaG-10 open</t>
+  </si>
+  <si>
+    <t>YaG-10 Valník</t>
+  </si>
+  <si>
+    <t>YaG-10 covered</t>
+  </si>
+  <si>
+    <t>YaG-10 S plachtou</t>
+  </si>
+  <si>
+    <t>YaG-10 open (trailer)</t>
+  </si>
+  <si>
+    <t>YaG-10 Valník s přívěsem</t>
+  </si>
+  <si>
+    <t>YaG-10 covered (trailer)</t>
+  </si>
+  <si>
+    <t>YaG-10 (garbage container)</t>
+  </si>
+  <si>
+    <t>YaG-10 Odpadové vozidlo</t>
+  </si>
+  <si>
+    <t>YaG dry bulk tank</t>
+  </si>
+  <si>
+    <t>YaG Na sypké materiály</t>
+  </si>
+  <si>
+    <t>YaG covered</t>
+  </si>
+  <si>
+    <t>YaG S plachtou</t>
+  </si>
+  <si>
+    <t>YaG DA-0.25 excavator</t>
+  </si>
+  <si>
+    <t>YaG DA-0.25 Bagr</t>
+  </si>
+  <si>
+    <t>YaG firetruck</t>
+  </si>
+  <si>
+    <t>YaG Hasičské vozidlo</t>
+  </si>
+  <si>
+    <t>YaG mixer</t>
+  </si>
+  <si>
+    <t>YaG Domíchávač</t>
+  </si>
+  <si>
+    <t>YaG cistern</t>
+  </si>
+  <si>
+    <t>YaG Cisterna</t>
+  </si>
+  <si>
+    <t>YaG sewage truck</t>
+  </si>
+  <si>
+    <t>YaG Fekální vůz</t>
+  </si>
+  <si>
+    <t>YaG water truck</t>
+  </si>
+  <si>
+    <t>YaG Vodní cisterna</t>
+  </si>
+  <si>
+    <t>YaG open</t>
+  </si>
+  <si>
+    <t>YaG Valník</t>
+  </si>
+  <si>
+    <t>YaG logger</t>
+  </si>
+  <si>
+    <t>YaG Lesnické</t>
+  </si>
+  <si>
+    <t>YaG ATP-1 crane</t>
+  </si>
+  <si>
+    <t>YaG ATP-1 Jeřáb</t>
+  </si>
+  <si>
+    <t>YaG snowplow</t>
+  </si>
+  <si>
+    <t>YaG Sněžný pluh</t>
+  </si>
+  <si>
+    <t>YaS</t>
+  </si>
+  <si>
+    <t>Ya-4 cistern</t>
+  </si>
+  <si>
+    <t>Ya-4 Cisterna</t>
+  </si>
+  <si>
+    <t>Ya-4 sewage truck</t>
+  </si>
+  <si>
+    <t>Ya-4 Fekální vůz</t>
+  </si>
+  <si>
+    <t>Ya-4 water truck</t>
+  </si>
+  <si>
+    <t>Ya-4 Vodní cisterna</t>
+  </si>
+  <si>
+    <t>Ya-4 open</t>
+  </si>
+  <si>
+    <t>Ya-4 Valník</t>
+  </si>
+  <si>
+    <t>Ya-4 covered</t>
+  </si>
+  <si>
+    <t>Ya-4 S plachtou</t>
+  </si>
+  <si>
+    <t>YaS Sklápěč</t>
+  </si>
+  <si>
+    <t>YaG-10 S plachtou a přívěsem</t>
   </si>
 </sst>
 </file>
@@ -3084,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D437"/>
+      <selection sqref="A1:D464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,13 +3279,13 @@
         <v>5000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,10 +3293,10 @@
         <v>5002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -3145,7 +3307,7 @@
         <v>5004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -3159,10 +3321,10 @@
         <v>5006</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -3173,10 +3335,10 @@
         <v>5008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -3187,10 +3349,10 @@
         <v>5010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -3201,10 +3363,10 @@
         <v>5012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -3215,10 +3377,10 @@
         <v>5014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -3229,13 +3391,13 @@
         <v>5020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,13 +3405,13 @@
         <v>5022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,13 +3419,13 @@
         <v>5024</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,13 +3433,13 @@
         <v>5028</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,13 +3447,13 @@
         <v>5041</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,13 +3461,13 @@
         <v>5043</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,13 +3475,13 @@
         <v>5045</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,13 +3489,13 @@
         <v>5047</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,13 +3503,13 @@
         <v>5049</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,13 +3517,13 @@
         <v>5051</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,13 +3531,13 @@
         <v>5053</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3383,13 +3545,13 @@
         <v>5055</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3397,13 +3559,13 @@
         <v>5057</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,13 +3573,13 @@
         <v>5059</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,13 +3587,13 @@
         <v>5061</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,13 +3601,13 @@
         <v>5063</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,13 +3615,13 @@
         <v>5065</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,13 +3629,13 @@
         <v>5089</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,13 +3643,13 @@
         <v>5091</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,13 +3657,13 @@
         <v>5093</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,13 +3671,13 @@
         <v>5095</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,13 +3685,13 @@
         <v>5097</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3537,13 +3699,13 @@
         <v>5099</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,13 +3713,13 @@
         <v>5101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,13 +3727,13 @@
         <v>5103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,10 +3741,10 @@
         <v>5105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -3593,10 +3755,10 @@
         <v>5107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>22</v>
@@ -3607,10 +3769,10 @@
         <v>5109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
@@ -3621,10 +3783,10 @@
         <v>5111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
@@ -3635,10 +3797,10 @@
         <v>5113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
@@ -3649,13 +3811,13 @@
         <v>5121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3663,13 +3825,13 @@
         <v>5123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,13 +3839,13 @@
         <v>5125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,13 +3853,13 @@
         <v>5127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,13 +3867,13 @@
         <v>5144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,13 +3881,13 @@
         <v>5148</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,13 +3895,13 @@
         <v>5152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,13 +3909,13 @@
         <v>5154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,13 +3923,13 @@
         <v>5155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,13 +3937,13 @@
         <v>5156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,13 +3951,13 @@
         <v>5157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3803,13 +3965,13 @@
         <v>5158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,13 +3979,13 @@
         <v>5159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,13 +3993,13 @@
         <v>5161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,13 +4007,13 @@
         <v>5162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,13 +4021,13 @@
         <v>5163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,13 +4035,13 @@
         <v>5164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,13 +4049,13 @@
         <v>5165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3901,13 +4063,13 @@
         <v>5166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,13 +4077,13 @@
         <v>5168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,13 +4091,13 @@
         <v>5169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,13 +4105,13 @@
         <v>5170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,13 +4119,13 @@
         <v>5171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,13 +4133,13 @@
         <v>5172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,13 +4147,13 @@
         <v>5173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,13 +4161,13 @@
         <v>5175</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,13 +4175,13 @@
         <v>5176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,13 +4189,13 @@
         <v>5177</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,13 +4203,13 @@
         <v>5178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,13 +4217,13 @@
         <v>5179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,13 +4231,13 @@
         <v>5181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,13 +4245,13 @@
         <v>5182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,13 +4259,13 @@
         <v>5183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,13 +4273,13 @@
         <v>5184</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,13 +4287,13 @@
         <v>5185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,13 +4301,13 @@
         <v>5186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,13 +4315,13 @@
         <v>5187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,10 +4329,10 @@
         <v>5188</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>21</v>
@@ -4181,13 +4343,13 @@
         <v>5189</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,13 +4357,13 @@
         <v>5210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,13 +4371,13 @@
         <v>5212</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,13 +4385,13 @@
         <v>5216</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,13 +4399,13 @@
         <v>5218</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,13 +4413,13 @@
         <v>5219</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,13 +4427,13 @@
         <v>5220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,13 +4441,13 @@
         <v>5221</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,13 +4455,13 @@
         <v>5223</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,13 +4469,13 @@
         <v>5224</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,13 +4483,13 @@
         <v>5225</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,13 +4497,13 @@
         <v>5226</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,13 +4511,13 @@
         <v>5227</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,13 +4525,13 @@
         <v>5228</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,13 +4539,13 @@
         <v>5230</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,13 +4553,13 @@
         <v>5231</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,13 +4567,13 @@
         <v>5232</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,13 +4581,13 @@
         <v>5233</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,13 +4595,13 @@
         <v>5234</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,13 +4609,13 @@
         <v>5235</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,13 +4623,13 @@
         <v>5237</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,10 +4637,10 @@
         <v>5238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -4489,10 +4651,10 @@
         <v>5240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>22</v>
@@ -4503,7 +4665,7 @@
         <v>5242</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
@@ -4517,13 +4679,13 @@
         <v>5244</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,13 +4693,13 @@
         <v>5246</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,10 +4707,10 @@
         <v>5247</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>22</v>
@@ -4559,13 +4721,13 @@
         <v>5249</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,13 +4735,13 @@
         <v>5250</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,10 +4749,10 @@
         <v>5251</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>22</v>
@@ -4601,10 +4763,10 @@
         <v>5252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>22</v>
@@ -4615,13 +4777,13 @@
         <v>5254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,13 +4791,13 @@
         <v>5256</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,13 +4805,13 @@
         <v>5260</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,10 +4819,10 @@
         <v>5264</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>22</v>
@@ -4671,13 +4833,13 @@
         <v>5272</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,13 +4847,13 @@
         <v>5274</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,13 +4861,13 @@
         <v>5275</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,13 +4875,13 @@
         <v>5276</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,13 +4889,13 @@
         <v>5277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,13 +4903,13 @@
         <v>5278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,13 +4917,13 @@
         <v>5279</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,13 +4931,13 @@
         <v>5281</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,13 +4945,13 @@
         <v>5284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,13 +4959,13 @@
         <v>5286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,13 +4973,13 @@
         <v>5288</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,13 +4987,13 @@
         <v>5291</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,13 +5001,13 @@
         <v>5292</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,13 +5015,13 @@
         <v>5293</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,13 +5029,13 @@
         <v>5294</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,13 +5043,13 @@
         <v>5296</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,10 +5057,10 @@
         <v>5297</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>22</v>
@@ -4909,13 +5071,13 @@
         <v>5299</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +5085,13 @@
         <v>5300</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +5099,13 @@
         <v>5301</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,10 +5113,10 @@
         <v>5302</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>22</v>
@@ -4965,13 +5127,13 @@
         <v>5304</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,13 +5141,13 @@
         <v>5305</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,13 +5155,13 @@
         <v>5306</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5169,13 @@
         <v>5307</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,13 +5183,13 @@
         <v>5308</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,13 +5197,13 @@
         <v>5309</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,13 +5211,13 @@
         <v>5310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,13 +5225,13 @@
         <v>5311</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,13 +5239,13 @@
         <v>5312</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,13 +5253,13 @@
         <v>5313</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,13 +5267,13 @@
         <v>5314</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,13 +5281,13 @@
         <v>5315</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,13 +5295,13 @@
         <v>5316</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,13 +5309,13 @@
         <v>5317</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,13 +5323,13 @@
         <v>5318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,13 +5337,13 @@
         <v>5319</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,13 +5351,13 @@
         <v>5321</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5203,13 +5365,13 @@
         <v>5323</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,13 +5379,13 @@
         <v>5324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,13 +5393,13 @@
         <v>5325</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,13 +5407,13 @@
         <v>5326</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,13 +5421,13 @@
         <v>5327</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>26</v>
+        <v>870</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5273,13 +5435,13 @@
         <v>5329</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,13 +5449,13 @@
         <v>5330</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,13 +5463,13 @@
         <v>5331</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5477,13 @@
         <v>5332</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,10 +5491,10 @@
         <v>5334</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>515</v>
+        <v>871</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>21</v>
@@ -5343,13 +5505,13 @@
         <v>5336</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,13 +5519,13 @@
         <v>5337</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,10 +5533,10 @@
         <v>5338</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>22</v>
@@ -5385,10 +5547,10 @@
         <v>5340</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>22</v>
@@ -5399,10 +5561,10 @@
         <v>5342</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>22</v>
@@ -5413,13 +5575,13 @@
         <v>5344</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5427,10 +5589,10 @@
         <v>5346</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>22</v>
@@ -5441,13 +5603,13 @@
         <v>5347</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,10 +5617,10 @@
         <v>5363</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>22</v>
@@ -5469,13 +5631,13 @@
         <v>5365</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,13 +5645,13 @@
         <v>5373</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,13 +5659,13 @@
         <v>5375</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5511,13 +5673,13 @@
         <v>5377</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5525,13 +5687,13 @@
         <v>5379</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5539,13 +5701,13 @@
         <v>5381</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,13 +5715,13 @@
         <v>5383</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5567,13 +5729,13 @@
         <v>5385</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,13 +5743,13 @@
         <v>5387</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,13 +5757,13 @@
         <v>5388</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5609,13 +5771,13 @@
         <v>5389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,13 +5785,13 @@
         <v>5391</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,13 +5799,13 @@
         <v>5393</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5651,13 +5813,13 @@
         <v>5395</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5665,13 +5827,13 @@
         <v>5398</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,13 +5841,13 @@
         <v>5400</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,13 +5855,13 @@
         <v>5428</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5707,13 +5869,13 @@
         <v>5429</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5721,13 +5883,13 @@
         <v>5430</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,13 +5897,13 @@
         <v>5431</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5749,13 +5911,13 @@
         <v>5432</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5763,13 +5925,13 @@
         <v>5433</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,13 +5939,13 @@
         <v>5434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5791,13 +5953,13 @@
         <v>5435</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,13 +5967,13 @@
         <v>5436</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5819,13 +5981,13 @@
         <v>5438</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5833,13 +5995,13 @@
         <v>5440</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,13 +6009,13 @@
         <v>5442</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,13 +6023,13 @@
         <v>5444</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5875,13 +6037,13 @@
         <v>5448</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5889,13 +6051,13 @@
         <v>5450</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,13 +6065,13 @@
         <v>5452</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5917,13 +6079,13 @@
         <v>5454</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,13 +6093,13 @@
         <v>5456</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5945,13 +6107,13 @@
         <v>5458</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5959,13 +6121,13 @@
         <v>5460</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5973,13 +6135,13 @@
         <v>5461</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,13 +6149,13 @@
         <v>5462</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,13 +6163,13 @@
         <v>5463</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,13 +6177,13 @@
         <v>5464</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,13 +6191,13 @@
         <v>5465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6043,13 +6205,13 @@
         <v>5466</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,13 +6219,13 @@
         <v>5467</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,13 +6233,13 @@
         <v>5468</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,13 +6247,13 @@
         <v>5469</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6099,13 +6261,13 @@
         <v>5472</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,13 +6275,13 @@
         <v>5473</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6127,13 +6289,13 @@
         <v>5474</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6141,13 +6303,13 @@
         <v>5475</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,13 +6317,13 @@
         <v>5476</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6169,13 +6331,13 @@
         <v>5477</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6183,13 +6345,13 @@
         <v>5479</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6197,13 +6359,13 @@
         <v>5480</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6211,13 +6373,13 @@
         <v>5481</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,13 +6387,13 @@
         <v>5482</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6239,13 +6401,13 @@
         <v>5483</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6253,13 +6415,13 @@
         <v>5484</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,13 +6429,13 @@
         <v>5485</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6281,13 +6443,13 @@
         <v>5486</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6295,13 +6457,13 @@
         <v>5487</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6309,13 +6471,13 @@
         <v>5488</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6323,13 +6485,13 @@
         <v>5489</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,13 +6499,13 @@
         <v>5490</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6351,13 +6513,13 @@
         <v>5491</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6365,13 +6527,13 @@
         <v>5492</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6379,13 +6541,13 @@
         <v>5493</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6393,10 +6555,10 @@
         <v>5494</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>21</v>
@@ -6407,13 +6569,13 @@
         <v>5495</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,13 +6583,13 @@
         <v>5496</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6435,13 +6597,13 @@
         <v>5497</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,7 +6611,7 @@
         <v>5498</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>25</v>
@@ -6463,13 +6625,13 @@
         <v>5499</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6477,13 +6639,13 @@
         <v>5520</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6491,13 +6653,13 @@
         <v>5521</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6505,13 +6667,13 @@
         <v>5522</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,13 +6681,13 @@
         <v>5523</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6533,13 +6695,13 @@
         <v>5524</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,13 +6709,13 @@
         <v>5525</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6561,13 +6723,13 @@
         <v>5526</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6575,13 +6737,13 @@
         <v>5527</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6589,13 +6751,13 @@
         <v>5528</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6603,13 +6765,13 @@
         <v>5529</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6617,13 +6779,13 @@
         <v>5530</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6631,13 +6793,13 @@
         <v>5531</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6645,13 +6807,13 @@
         <v>5533</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6659,13 +6821,13 @@
         <v>5534</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,13 +6835,13 @@
         <v>5535</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,13 +6849,13 @@
         <v>5536</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,13 +6863,13 @@
         <v>5537</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6715,13 +6877,13 @@
         <v>5538</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,13 +6891,13 @@
         <v>5539</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6743,13 +6905,13 @@
         <v>5540</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,13 +6919,13 @@
         <v>5541</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6771,13 +6933,13 @@
         <v>5542</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6785,13 +6947,13 @@
         <v>5543</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6799,13 +6961,13 @@
         <v>5544</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6813,13 +6975,13 @@
         <v>5545</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,13 +6989,13 @@
         <v>5546</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6841,13 +7003,13 @@
         <v>5565</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,13 +7017,13 @@
         <v>5566</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6869,13 +7031,13 @@
         <v>5570</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6883,13 +7045,13 @@
         <v>5571</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6897,13 +7059,13 @@
         <v>5572</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6911,13 +7073,13 @@
         <v>5573</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,13 +7087,13 @@
         <v>5574</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,13 +7101,13 @@
         <v>5575</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6953,13 +7115,13 @@
         <v>5576</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6967,13 +7129,13 @@
         <v>5577</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6981,13 +7143,13 @@
         <v>5578</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6995,13 +7157,13 @@
         <v>5579</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,13 +7171,13 @@
         <v>5580</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7023,13 +7185,13 @@
         <v>5581</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7037,13 +7199,13 @@
         <v>5582</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7051,13 +7213,13 @@
         <v>5583</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7065,13 +7227,13 @@
         <v>5584</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,13 +7241,13 @@
         <v>5585</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,13 +7255,13 @@
         <v>5586</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7107,13 +7269,13 @@
         <v>5587</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7121,13 +7283,13 @@
         <v>5589</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7135,13 +7297,13 @@
         <v>5590</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,13 +7311,13 @@
         <v>5591</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,13 +7325,13 @@
         <v>5592</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7177,13 +7339,13 @@
         <v>5593</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7191,13 +7353,13 @@
         <v>5598</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7205,13 +7367,13 @@
         <v>5700</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7219,10 +7381,10 @@
         <v>5848</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>22</v>
@@ -7233,13 +7395,13 @@
         <v>5849</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,13 +7409,13 @@
         <v>5850</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7261,13 +7423,13 @@
         <v>5851</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D298" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7275,13 +7437,13 @@
         <v>5852</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7289,13 +7451,13 @@
         <v>5853</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,13 +7465,13 @@
         <v>5854</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,13 +7479,13 @@
         <v>5855</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7331,13 +7493,13 @@
         <v>5856</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7345,13 +7507,13 @@
         <v>5857</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7359,13 +7521,13 @@
         <v>5858</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7373,13 +7535,13 @@
         <v>5859</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7387,13 +7549,13 @@
         <v>5860</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,13 +7563,13 @@
         <v>5861</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7415,13 +7577,13 @@
         <v>5862</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,13 +7591,13 @@
         <v>5863</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7443,13 +7605,13 @@
         <v>5864</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7457,13 +7619,13 @@
         <v>5865</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,13 +7633,13 @@
         <v>5866</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7485,13 +7647,13 @@
         <v>5867</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7499,13 +7661,13 @@
         <v>5868</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7513,13 +7675,13 @@
         <v>5869</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7527,13 +7689,13 @@
         <v>5873</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7541,13 +7703,13 @@
         <v>5874</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7555,13 +7717,13 @@
         <v>5875</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7569,13 +7731,13 @@
         <v>5876</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7583,13 +7745,13 @@
         <v>5877</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7597,13 +7759,13 @@
         <v>5901</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7611,13 +7773,13 @@
         <v>5902</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7625,13 +7787,13 @@
         <v>5903</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7639,13 +7801,13 @@
         <v>5904</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7653,13 +7815,13 @@
         <v>5935</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7667,13 +7829,13 @@
         <v>5936</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7681,13 +7843,13 @@
         <v>5937</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7695,13 +7857,13 @@
         <v>5941</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7709,13 +7871,13 @@
         <v>5942</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7723,13 +7885,13 @@
         <v>5943</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7737,13 +7899,13 @@
         <v>5944</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7751,13 +7913,13 @@
         <v>5953</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7765,13 +7927,13 @@
         <v>5954</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,13 +7941,13 @@
         <v>5955</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7793,13 +7955,13 @@
         <v>5956</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7807,13 +7969,13 @@
         <v>5957</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7821,13 +7983,13 @@
         <v>5958</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7835,13 +7997,13 @@
         <v>5959</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7849,10 +8011,10 @@
         <v>5963</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>23</v>
@@ -7863,10 +8025,10 @@
         <v>5965</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>23</v>
@@ -7877,150 +8039,150 @@
         <v>5970</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>61068</v>
+        <v>6112</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>836</v>
+        <v>916</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>837</v>
+        <v>917</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>61069</v>
+        <v>6113</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>838</v>
+        <v>918</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>839</v>
+        <v>919</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>91001</v>
+        <v>6114</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>705</v>
+        <v>920</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>706</v>
+        <v>921</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>91002</v>
+        <v>6118</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>707</v>
+        <v>922</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>708</v>
+        <v>923</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>91003</v>
+        <v>6119</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>709</v>
+        <v>924</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>91004</v>
+        <v>6124</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>710</v>
+        <v>878</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>776</v>
+        <v>879</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>91005</v>
+        <v>6125</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>712</v>
+        <v>881</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>558</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>91006</v>
+        <v>6126</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>713</v>
+        <v>882</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>714</v>
+        <v>883</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>91007</v>
+        <v>6127</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>715</v>
+        <v>884</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>716</v>
+        <v>885</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>717</v>
+        <v>480</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>91008</v>
+        <v>6128</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>484</v>
@@ -8028,1063 +8190,1063 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>91009</v>
+        <v>6129</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>720</v>
+        <v>888</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>721</v>
+        <v>927</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>91010</v>
+        <v>6130</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>723</v>
+        <v>890</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>488</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>91011</v>
+        <v>6131</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>724</v>
+        <v>891</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>725</v>
+        <v>892</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>91012</v>
+        <v>6132</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>726</v>
+        <v>893</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>777</v>
+        <v>894</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>91013</v>
+        <v>6133</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>727</v>
+        <v>895</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>778</v>
+        <v>896</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>565</v>
+        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>91014</v>
+        <v>6134</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>728</v>
+        <v>897</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>729</v>
+        <v>898</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>677</v>
+        <v>556</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>91015</v>
+        <v>6135</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>730</v>
+        <v>899</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>731</v>
+        <v>900</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>91016</v>
+        <v>6136</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>732</v>
+        <v>901</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>733</v>
+        <v>902</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>91021</v>
+        <v>6137</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>734</v>
+        <v>903</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>735</v>
+        <v>904</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>736</v>
+        <v>487</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>91022</v>
+        <v>6138</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>862</v>
+        <v>905</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>863</v>
+        <v>906</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>91023</v>
+        <v>6139</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>737</v>
+        <v>907</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>738</v>
+        <v>908</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>91032</v>
+        <v>6140</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>739</v>
+        <v>909</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>740</v>
+        <v>910</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>673</v>
+        <v>504</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>91033</v>
+        <v>6141</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>741</v>
+        <v>911</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>742</v>
+        <v>912</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>673</v>
+        <v>486</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>91036</v>
+        <v>6142</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>811</v>
+        <v>913</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>812</v>
+        <v>914</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>91037</v>
+        <v>6143</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>813</v>
+        <v>915</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>814</v>
+        <v>926</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>91038</v>
+        <v>61068</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>22</v>
+        <v>556</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>91040</v>
+        <v>61069</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>91044</v>
+        <v>91001</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>473</v>
+        <v>703</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>474</v>
+        <v>704</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>91045</v>
+        <v>91002</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>475</v>
+        <v>705</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>476</v>
+        <v>706</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>518</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>91046</v>
+        <v>91003</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>477</v>
+        <v>707</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>478</v>
+        <v>771</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>91047</v>
+        <v>91004</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>479</v>
+        <v>708</v>
       </c>
       <c r="C373" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>91056</v>
+        <v>91005</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>91057</v>
+        <v>91006</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>91058</v>
+        <v>91007</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>817</v>
+        <v>713</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>818</v>
+        <v>714</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>481</v>
+        <v>715</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>91059</v>
+        <v>91008</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>819</v>
+        <v>716</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>820</v>
+        <v>717</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>91060</v>
+        <v>91009</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>864</v>
+        <v>718</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>865</v>
+        <v>719</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>91061</v>
+        <v>91010</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>866</v>
+        <v>720</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>867</v>
+        <v>721</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>91068</v>
+        <v>91011</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>91055</v>
+        <v>91012</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>868</v>
+        <v>724</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>869</v>
+        <v>773</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>91072</v>
+        <v>91013</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>822</v>
+        <v>774</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>601</v>
+        <v>563</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>91073</v>
+        <v>91014</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>517</v>
+        <v>675</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>91074</v>
+        <v>91015</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>823</v>
+        <v>728</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>824</v>
+        <v>729</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>601</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>91075</v>
+        <v>91016</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>860</v>
+        <v>730</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>861</v>
+        <v>731</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>601</v>
+        <v>517</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>91076</v>
+        <v>91021</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>517</v>
+        <v>734</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>91077</v>
+        <v>91022</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>91109</v>
+        <v>91023</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>842</v>
+        <v>736</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>91110</v>
+        <v>91032</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>780</v>
+        <v>737</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>843</v>
+        <v>738</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>558</v>
+        <v>671</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>91111</v>
+        <v>91033</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>844</v>
+        <v>740</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>91112</v>
+        <v>91036</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>484</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>91113</v>
+        <v>91037</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>488</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>91114</v>
+        <v>91038</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>488</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>91115</v>
+        <v>91040</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>848</v>
+        <v>742</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>91116</v>
+        <v>91044</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>786</v>
+        <v>472</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>849</v>
+        <v>473</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>91117</v>
+        <v>91045</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>787</v>
+        <v>474</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>850</v>
+        <v>475</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>677</v>
+        <v>516</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>91118</v>
+        <v>91046</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>788</v>
+        <v>476</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>851</v>
+        <v>477</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>91119</v>
+        <v>91047</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>789</v>
+        <v>478</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>852</v>
+        <v>479</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>91120</v>
+        <v>91055</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>790</v>
+        <v>864</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>21</v>
+        <v>498</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>91121</v>
+        <v>91056</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>791</v>
+        <v>743</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>854</v>
+        <v>744</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>91122</v>
+        <v>91057</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>791</v>
+        <v>745</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>855</v>
+        <v>746</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>91123</v>
+        <v>91058</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>91124</v>
+        <v>91059</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>91125</v>
+        <v>91060</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>796</v>
+        <v>861</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>91126</v>
+        <v>91061</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>798</v>
+        <v>863</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>91127</v>
+        <v>91068</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>799</v>
+        <v>747</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>91128</v>
+        <v>91072</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>488</v>
+        <v>599</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>91129</v>
+        <v>91073</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>804</v>
+        <v>872</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>91130</v>
+        <v>91074</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>856</v>
+        <v>820</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>488</v>
+        <v>599</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>91131</v>
+        <v>91075</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>806</v>
+        <v>856</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>857</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>488</v>
+        <v>599</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>91132</v>
+        <v>91076</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>807</v>
+        <v>750</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>858</v>
+        <v>751</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>91135</v>
+        <v>91077</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>756</v>
+        <v>821</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>91136</v>
+        <v>91108</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>91137</v>
+        <v>91109</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>872</v>
+        <v>775</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>91138</v>
+        <v>91110</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>759</v>
+        <v>839</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>91142</v>
+        <v>91111</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>91143</v>
+        <v>91112</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>762</v>
+        <v>841</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>91144</v>
+        <v>91113</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>764</v>
+        <v>842</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>91152</v>
+        <v>91114</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>766</v>
+        <v>843</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>91153</v>
+        <v>91115</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>698</v>
+        <v>844</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>91157</v>
+        <v>91116</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>565</v>
+        <v>484</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>91158</v>
+        <v>91117</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>565</v>
+        <v>675</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>91159</v>
+        <v>91118</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>91165</v>
+        <v>91119</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>810</v>
+        <v>848</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>91167</v>
+        <v>91120</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>768</v>
+        <v>849</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>517</v>
+        <v>21</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>91169</v>
+        <v>91121</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>829</v>
+        <v>787</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>677</v>
+        <v>480</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>91170</v>
+        <v>91122</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>830</v>
+        <v>787</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>677</v>
+        <v>484</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>91192</v>
+        <v>91123</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>487</v>
@@ -9092,128 +9254,506 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>91195</v>
+        <v>91124</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>91196</v>
+        <v>91125</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>832</v>
+        <v>752</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>833</v>
+        <v>792</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>91197</v>
+        <v>91126</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>91211</v>
+        <v>91127</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>739</v>
+        <v>795</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>840</v>
+        <v>796</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>91212</v>
+        <v>91128</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>741</v>
+        <v>797</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>841</v>
+        <v>798</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>91221</v>
+        <v>91129</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>91224</v>
+        <v>91130</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>704</v>
+        <v>852</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>91225</v>
+        <v>91131</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>565</v>
+        <v>487</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
+        <v>91132</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>91135</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>91136</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>91137</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>91138</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>91142</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>91143</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>91144</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>91152</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>91153</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>91157</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>91158</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>91159</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>91165</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>91167</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>91169</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>91170</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>91192</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>91195</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>91196</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>91197</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>91198</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>91211</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>91212</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>91221</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>91224</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>91225</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>91226</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>565</v>
+      <c r="B464" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/executable/Translations.xlsx
+++ b/executable/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRSR-Modding\WRSR-Translation-Editor\executable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B1563-FEE7-4F61-B12A-E7B5D4439925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A485839-8A3F-479F-9318-429F228F206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="970">
   <si>
     <t>Škoda 14Tr</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Barkas B1000</t>
   </si>
   <si>
-    <t>IFA W50</t>
-  </si>
-  <si>
     <t>КрАЗ-256Б</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>IMV 2200D</t>
   </si>
   <si>
-    <t>Roman 8135</t>
-  </si>
-  <si>
     <t>Урал-377</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Avia A31 Hasičský vůz</t>
   </si>
   <si>
-    <t>ГАЗ-53</t>
-  </si>
-  <si>
     <t>Tatra 815 Hasičská Cisterna</t>
   </si>
   <si>
@@ -357,12 +348,6 @@
     <t>LIAZ 100.850 Vodní cisterna</t>
   </si>
   <si>
-    <t>Roman 19215</t>
-  </si>
-  <si>
-    <t>Roman 19256 (прицеп)</t>
-  </si>
-  <si>
     <t>Tatra 138 Cisterna</t>
   </si>
   <si>
@@ -453,9 +438,6 @@
     <t>Škoda Garde</t>
   </si>
   <si>
-    <t>Волга ГАЗ-21</t>
-  </si>
-  <si>
     <t>Škoda 100</t>
   </si>
   <si>
@@ -486,9 +468,6 @@
     <t>IFA Trabi 601</t>
   </si>
   <si>
-    <t>Волга ГАЗ-24</t>
-  </si>
-  <si>
     <t>ВАЗ-2101</t>
   </si>
   <si>
@@ -1587,9 +1566,6 @@
     <t>Roman 19215 Bagr</t>
   </si>
   <si>
-    <t>Roman 19256 na cement</t>
-  </si>
-  <si>
     <t>БелАЗ-525 Sklápěč</t>
   </si>
   <si>
@@ -1737,9 +1713,6 @@
     <t>IFA W50 Valník</t>
   </si>
   <si>
-    <t>IFA W50 (фура) S plachtou</t>
-  </si>
-  <si>
     <t>IFA W50 Hasičský vůz</t>
   </si>
   <si>
@@ -1980,12 +1953,6 @@
     <t>FZK A07 (vězeňský)</t>
   </si>
   <si>
-    <t>Волга ГАЗ-24 Policejní</t>
-  </si>
-  <si>
-    <t>Волга ГАЗ-21 Policejní</t>
-  </si>
-  <si>
     <t>ЗИЛ-130 AJ</t>
   </si>
   <si>
@@ -2809,6 +2776,165 @@
   </si>
   <si>
     <t>YaG-10 S plachtou a přívěsem</t>
+  </si>
+  <si>
+    <t>EC-2</t>
+  </si>
+  <si>
+    <t>Douglas DC-2</t>
+  </si>
+  <si>
+    <t>GAZ 905</t>
+  </si>
+  <si>
+    <t>ГАЗ-905</t>
+  </si>
+  <si>
+    <t>Multicar M21</t>
+  </si>
+  <si>
+    <t>IFA M21</t>
+  </si>
+  <si>
+    <t>Ant-9 Tupolev</t>
+  </si>
+  <si>
+    <t>Tupolev ANT-9</t>
+  </si>
+  <si>
+    <t>B-247</t>
+  </si>
+  <si>
+    <t>Boeing 247</t>
+  </si>
+  <si>
+    <t>Ik 60T</t>
+  </si>
+  <si>
+    <t>Ikarus 60T</t>
+  </si>
+  <si>
+    <t>Koňská sanitka</t>
+  </si>
+  <si>
+    <t>Koňský osobní povoz</t>
+  </si>
+  <si>
+    <t>Velký koňský osobní povoz</t>
+  </si>
+  <si>
+    <t>Koňský velký osobní povoz</t>
+  </si>
+  <si>
+    <t>Koňský povoz na sypké materiály</t>
+  </si>
+  <si>
+    <t>Koňský povoz cisternový</t>
+  </si>
+  <si>
+    <t>Koňský domíchávač</t>
+  </si>
+  <si>
+    <t>Koňský povoz krytý</t>
+  </si>
+  <si>
+    <t>Koňský jeřáb</t>
+  </si>
+  <si>
+    <t>Koňský povoz hasičský</t>
+  </si>
+  <si>
+    <t>Koňský povoz sklápěcí</t>
+  </si>
+  <si>
+    <t>Koňský povoz s plochou korbou</t>
+  </si>
+  <si>
+    <t>Koňský povoz na led</t>
+  </si>
+  <si>
+    <t>M 124.0 Komarek</t>
+  </si>
+  <si>
+    <t>MV 124 Komarek</t>
+  </si>
+  <si>
+    <t>Horse police carriage</t>
+  </si>
+  <si>
+    <t>Koňský povoz policejní</t>
+  </si>
+  <si>
+    <t>Sewage Tank Carriage</t>
+  </si>
+  <si>
+    <t>Koňský povoz na fekálie</t>
+  </si>
+  <si>
+    <t>Water Tank Carriage</t>
+  </si>
+  <si>
+    <t>Koňský povoz na vodu</t>
+  </si>
+  <si>
+    <t>Horse Garbage Carriage</t>
+  </si>
+  <si>
+    <t>Koňský povoz na odpad</t>
+  </si>
+  <si>
+    <t>Horse logging wagon</t>
+  </si>
+  <si>
+    <t>Koňský povoz na dřevo</t>
+  </si>
+  <si>
+    <t>ZiS 154</t>
+  </si>
+  <si>
+    <t>Moskvič 400</t>
+  </si>
+  <si>
+    <t>Moskvič 407</t>
+  </si>
+  <si>
+    <t>IFA W50 Cisterna</t>
+  </si>
+  <si>
+    <t>ГАЗ-53 Cisterna</t>
+  </si>
+  <si>
+    <t>ГАЗ-24 Волга</t>
+  </si>
+  <si>
+    <t>ГАЗ-21 Волга</t>
+  </si>
+  <si>
+    <t>Roman 8135 Cisterna</t>
+  </si>
+  <si>
+    <t>Roman 19215 Cisterna</t>
+  </si>
+  <si>
+    <t>Roman 19256 Na cement</t>
+  </si>
+  <si>
+    <t>Roman 19256 Cisterna</t>
+  </si>
+  <si>
+    <t>ГАЗ-21 Волга Policejní</t>
+  </si>
+  <si>
+    <t>ГАЗ-24 Волга Policejní</t>
+  </si>
+  <si>
+    <t>ЗИС-154</t>
+  </si>
+  <si>
+    <t>Moskvič 400 Policejní</t>
+  </si>
+  <si>
+    <t>Moskvič 407 Policejní</t>
   </si>
 </sst>
 </file>
@@ -3246,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D464"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D464"/>
+      <selection sqref="A1:D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,16 +3388,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,13 +3405,13 @@
         <v>5000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,13 +3419,13 @@
         <v>5002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,13 +3433,13 @@
         <v>5004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,13 +3447,13 @@
         <v>5006</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3335,13 +3461,13 @@
         <v>5008</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,13 +3475,13 @@
         <v>5010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,13 +3489,13 @@
         <v>5012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,13 +3503,13 @@
         <v>5014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,13 +3517,13 @@
         <v>5020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,13 +3531,13 @@
         <v>5022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,13 +3545,13 @@
         <v>5024</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,13 +3559,13 @@
         <v>5028</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,13 +3573,13 @@
         <v>5041</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,13 +3587,13 @@
         <v>5043</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,13 +3601,13 @@
         <v>5045</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,13 +3615,13 @@
         <v>5047</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,13 +3629,13 @@
         <v>5049</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,13 +3643,13 @@
         <v>5051</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,13 +3657,13 @@
         <v>5053</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +3671,13 @@
         <v>5055</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,13 +3685,13 @@
         <v>5057</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,13 +3699,13 @@
         <v>5059</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,13 +3713,13 @@
         <v>5061</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,13 +3727,13 @@
         <v>5063</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +3741,13 @@
         <v>5065</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +3755,13 @@
         <v>5089</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +3769,13 @@
         <v>5091</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +3783,13 @@
         <v>5093</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3797,13 @@
         <v>5095</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,13 +3811,13 @@
         <v>5097</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,13 +3825,13 @@
         <v>5099</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +3839,13 @@
         <v>5101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,13 +3853,13 @@
         <v>5103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +3867,13 @@
         <v>5105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +3881,13 @@
         <v>5107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +3895,13 @@
         <v>5109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +3909,13 @@
         <v>5111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,13 +3923,13 @@
         <v>5113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3937,13 @@
         <v>5121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,13 +3951,13 @@
         <v>5123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +3965,13 @@
         <v>5125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +3979,13 @@
         <v>5127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +3993,13 @@
         <v>5144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +4007,13 @@
         <v>5148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +4021,13 @@
         <v>5152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,13 +4035,13 @@
         <v>5154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,13 +4049,13 @@
         <v>5155</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,13 +4063,13 @@
         <v>5156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,13 +4077,13 @@
         <v>5157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,13 +4091,13 @@
         <v>5158</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,13 +4105,13 @@
         <v>5159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,13 +4119,13 @@
         <v>5161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,13 +4133,13 @@
         <v>5162</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,13 +4147,13 @@
         <v>5163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,13 +4161,13 @@
         <v>5164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,13 +4175,13 @@
         <v>5165</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,13 +4189,13 @@
         <v>5166</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,13 +4203,13 @@
         <v>5168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,13 +4217,13 @@
         <v>5169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,13 +4231,13 @@
         <v>5170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,13 +4245,13 @@
         <v>5171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,13 +4259,13 @@
         <v>5172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,13 +4273,13 @@
         <v>5173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,13 +4287,13 @@
         <v>5175</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,13 +4301,13 @@
         <v>5176</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,13 +4315,13 @@
         <v>5177</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,13 +4329,13 @@
         <v>5178</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,13 +4343,13 @@
         <v>5179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,13 +4357,13 @@
         <v>5181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4371,13 @@
         <v>5182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,13 +4385,13 @@
         <v>5183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,13 +4399,13 @@
         <v>5184</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,13 +4413,13 @@
         <v>5185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4427,13 @@
         <v>5186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,13 +4441,13 @@
         <v>5187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4455,13 @@
         <v>5188</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,13 +4469,13 @@
         <v>5189</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,13 +4483,13 @@
         <v>5210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,13 +4497,13 @@
         <v>5212</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +4511,13 @@
         <v>5216</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,13 +4525,13 @@
         <v>5218</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,13 +4539,13 @@
         <v>5219</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,13 +4553,13 @@
         <v>5220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,13 +4567,13 @@
         <v>5221</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,13 +4581,13 @@
         <v>5223</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,13 +4595,13 @@
         <v>5224</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4609,13 @@
         <v>5225</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,13 +4623,13 @@
         <v>5226</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4637,13 @@
         <v>5227</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,13 +4651,13 @@
         <v>5228</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,13 +4665,13 @@
         <v>5230</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,13 +4679,13 @@
         <v>5231</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,13 +4693,13 @@
         <v>5232</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,13 +4707,13 @@
         <v>5233</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,13 +4721,13 @@
         <v>5234</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,13 +4735,13 @@
         <v>5235</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,13 +4749,13 @@
         <v>5237</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,13 +4763,13 @@
         <v>5238</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,13 +4777,13 @@
         <v>5240</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4665,13 +4791,13 @@
         <v>5242</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,13 +4805,13 @@
         <v>5244</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4693,13 +4819,13 @@
         <v>5246</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,13 +4833,13 @@
         <v>5247</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,13 +4847,13 @@
         <v>5249</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,13 +4861,13 @@
         <v>5250</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,13 +4875,13 @@
         <v>5251</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,13 +4889,13 @@
         <v>5252</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,13 +4903,13 @@
         <v>5254</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,13 +4917,13 @@
         <v>5256</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,13 +4931,13 @@
         <v>5260</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,13 +4945,13 @@
         <v>5264</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,13 +4959,13 @@
         <v>5272</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,13 +4973,13 @@
         <v>5274</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,13 +4987,13 @@
         <v>5275</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,13 +5001,13 @@
         <v>5276</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,13 +5015,13 @@
         <v>5277</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,13 +5029,13 @@
         <v>5278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,13 +5043,13 @@
         <v>5279</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,13 +5057,13 @@
         <v>5281</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,13 +5071,13 @@
         <v>5284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,13 +5085,13 @@
         <v>5286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,13 +5099,13 @@
         <v>5288</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4987,13 +5113,13 @@
         <v>5291</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,13 +5127,13 @@
         <v>5292</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,13 +5141,13 @@
         <v>5293</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,13 +5155,13 @@
         <v>5294</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,13 +5169,13 @@
         <v>5296</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5183,13 @@
         <v>5297</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,13 +5197,13 @@
         <v>5299</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,13 +5211,13 @@
         <v>5300</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,13 +5225,13 @@
         <v>5301</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,13 +5239,13 @@
         <v>5302</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5253,13 @@
         <v>5304</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,13 +5267,13 @@
         <v>5305</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5281,13 @@
         <v>5306</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5295,13 @@
         <v>5307</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>13</v>
+        <v>957</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5309,13 @@
         <v>5308</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5323,13 @@
         <v>5309</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>13</v>
+        <v>957</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5337,13 @@
         <v>5310</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>570</v>
+        <v>474</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5351,13 @@
         <v>5311</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,13 +5365,13 @@
         <v>5312</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,13 +5379,13 @@
         <v>5313</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,13 +5393,13 @@
         <v>5314</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,13 +5407,13 @@
         <v>5315</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,13 +5421,13 @@
         <v>5316</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5435,13 @@
         <v>5317</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,13 +5449,13 @@
         <v>5318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5463,13 @@
         <v>5319</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,13 +5477,13 @@
         <v>5321</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,13 +5491,13 @@
         <v>5323</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5505,13 @@
         <v>5324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>30</v>
+        <v>958</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,13 +5519,13 @@
         <v>5325</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,13 +5533,13 @@
         <v>5326</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,13 +5547,13 @@
         <v>5327</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +5561,13 @@
         <v>5329</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,13 +5575,13 @@
         <v>5330</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,13 +5589,13 @@
         <v>5331</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,13 +5603,13 @@
         <v>5332</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,13 +5617,13 @@
         <v>5334</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,13 +5631,13 @@
         <v>5336</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,13 +5645,13 @@
         <v>5337</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,13 +5659,13 @@
         <v>5338</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,13 +5673,13 @@
         <v>5340</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,13 +5687,13 @@
         <v>5342</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,13 +5701,13 @@
         <v>5344</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,13 +5715,13 @@
         <v>5346</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,13 +5729,13 @@
         <v>5347</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,13 +5743,13 @@
         <v>5363</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,13 +5757,13 @@
         <v>5365</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,13 +5771,13 @@
         <v>5373</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>153</v>
+        <v>959</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,13 +5785,13 @@
         <v>5375</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5673,13 +5799,13 @@
         <v>5377</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,13 +5813,13 @@
         <v>5379</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,13 +5827,13 @@
         <v>5381</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,13 +5841,13 @@
         <v>5383</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,13 +5855,13 @@
         <v>5385</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,13 +5869,13 @@
         <v>5387</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,13 +5883,13 @@
         <v>5388</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,13 +5897,13 @@
         <v>5389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>142</v>
+        <v>960</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,13 +5911,13 @@
         <v>5391</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,13 +5925,13 @@
         <v>5393</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5813,13 +5939,13 @@
         <v>5395</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,13 +5953,13 @@
         <v>5398</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,13 +5967,13 @@
         <v>5400</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,13 +5981,13 @@
         <v>5428</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,13 +5995,13 @@
         <v>5429</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,13 +6009,13 @@
         <v>5430</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,13 +6023,13 @@
         <v>5431</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,13 +6037,13 @@
         <v>5432</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,13 +6051,13 @@
         <v>5433</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,13 +6065,13 @@
         <v>5434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,13 +6079,13 @@
         <v>5435</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,13 +6093,13 @@
         <v>5436</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,13 +6107,13 @@
         <v>5438</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,13 +6121,13 @@
         <v>5440</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,13 +6135,13 @@
         <v>5442</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,13 +6149,13 @@
         <v>5444</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,13 +6163,13 @@
         <v>5448</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6051,13 +6177,13 @@
         <v>5450</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,13 +6191,13 @@
         <v>5452</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,13 +6205,13 @@
         <v>5454</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,13 +6219,13 @@
         <v>5456</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,13 +6233,13 @@
         <v>5458</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6121,13 +6247,13 @@
         <v>5460</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,13 +6261,13 @@
         <v>5461</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,13 +6275,13 @@
         <v>5462</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,13 +6289,13 @@
         <v>5463</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,13 +6303,13 @@
         <v>5464</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,13 +6317,13 @@
         <v>5465</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,13 +6331,13 @@
         <v>5466</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,13 +6345,13 @@
         <v>5467</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,13 +6359,13 @@
         <v>5468</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,13 +6373,13 @@
         <v>5469</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,13 +6387,13 @@
         <v>5472</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6275,13 +6401,13 @@
         <v>5473</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,13 +6415,13 @@
         <v>5474</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6303,13 +6429,13 @@
         <v>5475</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6317,13 +6443,13 @@
         <v>5476</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,13 +6457,13 @@
         <v>5477</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,13 +6471,13 @@
         <v>5479</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,13 +6485,13 @@
         <v>5480</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,13 +6499,13 @@
         <v>5481</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,13 +6513,13 @@
         <v>5482</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,13 +6527,13 @@
         <v>5483</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>26</v>
+        <v>961</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,13 +6541,13 @@
         <v>5484</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,13 +6555,13 @@
         <v>5485</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,13 +6569,13 @@
         <v>5486</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,13 +6583,13 @@
         <v>5487</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,13 +6597,13 @@
         <v>5488</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,13 +6611,13 @@
         <v>5489</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,13 +6625,13 @@
         <v>5490</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>110</v>
+        <v>962</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6513,13 +6639,13 @@
         <v>5491</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6527,13 +6653,13 @@
         <v>5492</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,13 +6667,13 @@
         <v>5493</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,13 +6681,13 @@
         <v>5494</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>520</v>
+        <v>963</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,13 +6695,13 @@
         <v>5495</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>111</v>
+        <v>964</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,13 +6709,13 @@
         <v>5496</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,13 +6723,13 @@
         <v>5497</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,13 +6737,13 @@
         <v>5498</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,13 +6751,13 @@
         <v>5499</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,13 +6765,13 @@
         <v>5520</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,13 +6779,13 @@
         <v>5521</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,13 +6793,13 @@
         <v>5522</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,13 +6807,13 @@
         <v>5523</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,13 +6821,13 @@
         <v>5524</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,13 +6835,13 @@
         <v>5525</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,13 +6849,13 @@
         <v>5526</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,13 +6863,13 @@
         <v>5527</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,13 +6877,13 @@
         <v>5528</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>652</v>
+        <v>965</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,13 +6891,13 @@
         <v>5529</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,13 +6905,13 @@
         <v>5530</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>651</v>
+        <v>966</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,13 +6919,13 @@
         <v>5531</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,13 +6933,13 @@
         <v>5533</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,13 +6947,13 @@
         <v>5534</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,13 +6961,13 @@
         <v>5535</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,13 +6975,13 @@
         <v>5536</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,13 +6989,13 @@
         <v>5537</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,13 +7003,13 @@
         <v>5538</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,13 +7017,13 @@
         <v>5539</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,13 +7031,13 @@
         <v>5540</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,13 +7045,13 @@
         <v>5541</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,13 +7059,13 @@
         <v>5542</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,13 +7073,13 @@
         <v>5543</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,13 +7087,13 @@
         <v>5544</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6975,13 +7101,13 @@
         <v>5545</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,13 +7115,13 @@
         <v>5546</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,13 +7129,13 @@
         <v>5565</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,13 +7143,13 @@
         <v>5566</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,13 +7157,13 @@
         <v>5570</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,13 +7171,13 @@
         <v>5571</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,13 +7185,13 @@
         <v>5572</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,13 +7199,13 @@
         <v>5573</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,13 +7213,13 @@
         <v>5574</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,13 +7227,13 @@
         <v>5575</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,13 +7241,13 @@
         <v>5576</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,13 +7255,13 @@
         <v>5577</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,13 +7269,13 @@
         <v>5578</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,13 +7283,13 @@
         <v>5579</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,13 +7297,13 @@
         <v>5580</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,13 +7311,13 @@
         <v>5581</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,13 +7325,13 @@
         <v>5582</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,13 +7339,13 @@
         <v>5583</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,13 +7353,13 @@
         <v>5584</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,13 +7367,13 @@
         <v>5585</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,13 +7381,13 @@
         <v>5586</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,13 +7395,13 @@
         <v>5587</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,13 +7409,13 @@
         <v>5589</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,13 +7423,13 @@
         <v>5590</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,13 +7437,13 @@
         <v>5591</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,13 +7451,13 @@
         <v>5592</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,13 +7465,13 @@
         <v>5593</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,13 +7479,13 @@
         <v>5598</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,13 +7493,13 @@
         <v>5700</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,13 +7507,13 @@
         <v>5848</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,13 +7521,13 @@
         <v>5849</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,13 +7535,13 @@
         <v>5850</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,13 +7549,13 @@
         <v>5851</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,13 +7563,13 @@
         <v>5852</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,13 +7577,13 @@
         <v>5853</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,13 +7591,13 @@
         <v>5854</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,13 +7605,13 @@
         <v>5855</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,13 +7619,13 @@
         <v>5856</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,13 +7633,13 @@
         <v>5857</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,13 +7647,13 @@
         <v>5858</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,13 +7661,13 @@
         <v>5859</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,13 +7675,13 @@
         <v>5860</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7563,13 +7689,13 @@
         <v>5861</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,13 +7703,13 @@
         <v>5862</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7591,13 +7717,13 @@
         <v>5863</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7605,13 +7731,13 @@
         <v>5864</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,13 +7745,13 @@
         <v>5865</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7633,13 +7759,13 @@
         <v>5866</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,13 +7773,13 @@
         <v>5867</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,13 +7787,13 @@
         <v>5868</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,13 +7801,13 @@
         <v>5869</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,13 +7815,13 @@
         <v>5873</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="D317" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,13 +7829,13 @@
         <v>5874</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7717,13 +7843,13 @@
         <v>5875</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,13 +7857,13 @@
         <v>5876</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,1046 +7871,1040 @@
         <v>5877</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>5901</v>
+        <v>5878</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>416</v>
+        <v>917</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>105</v>
+        <v>918</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>599</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>603</v>
+        <v>30</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>5935</v>
+        <v>5904</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>465</v>
+        <v>595</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>5936</v>
+        <v>5935</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>5937</v>
+        <v>5936</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>5941</v>
+        <v>5937</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>5942</v>
+        <v>5941</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>5943</v>
+        <v>5942</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>5944</v>
+        <v>5943</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>5953</v>
+        <v>5944</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>5954</v>
+        <v>5953</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>5955</v>
+        <v>5954</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>5956</v>
+        <v>5955</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>5957</v>
+        <v>5956</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>5963</v>
+        <v>5959</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>687</v>
+        <v>52</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>23</v>
+        <v>478</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>5970</v>
+        <v>5965</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>627</v>
+        <v>424</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>6112</v>
+        <v>5970</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>916</v>
+        <v>618</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>917</v>
+        <v>619</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>6118</v>
+        <v>6114</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>6119</v>
+        <v>6118</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>6124</v>
+        <v>6119</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>6125</v>
+        <v>6124</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>6127</v>
+        <v>6126</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>6130</v>
+        <v>6129</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>599</v>
+        <v>473</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>21</v>
+        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>6132</v>
+        <v>6131</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>480</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>6133</v>
+        <v>6132</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>671</v>
+        <v>473</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>556</v>
+        <v>660</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>6135</v>
+        <v>6134</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>6137</v>
+        <v>6136</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>61068</v>
+        <v>6143</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>833</v>
+        <v>915</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>61069</v>
+        <v>61068</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>91001</v>
+        <v>61069</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>704</v>
+        <v>824</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>91002</v>
+        <v>91042</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>705</v>
+        <v>954</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>706</v>
+        <v>967</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>91003</v>
+        <v>61070</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>707</v>
+        <v>919</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>483</v>
+        <v>920</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>91004</v>
+        <v>61071</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>708</v>
+        <v>921</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>480</v>
+        <v>922</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>91005</v>
+        <v>91001</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>91006</v>
+        <v>91002</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>484</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>91007</v>
+        <v>91003</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>715</v>
+        <v>476</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>91008</v>
+        <v>91004</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>91009</v>
+        <v>91005</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>91010</v>
+        <v>91006</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>91011</v>
+        <v>91007</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>487</v>
+        <v>704</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>91012</v>
+        <v>91008</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>91013</v>
+        <v>91009</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>91014</v>
+        <v>91010</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>675</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>91015</v>
+        <v>91011</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>91016</v>
+        <v>91012</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>91021</v>
+        <v>91013</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>734</v>
+        <v>555</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>91022</v>
+        <v>91014</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>858</v>
+        <v>715</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>859</v>
+        <v>716</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>503</v>
+        <v>664</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>91023</v>
+        <v>91015</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>91032</v>
+        <v>91016</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>671</v>
+        <v>510</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>91033</v>
+        <v>91021</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>91036</v>
+        <v>91022</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>808</v>
+        <v>848</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>91037</v>
+        <v>91162</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>809</v>
+        <v>955</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>810</v>
+        <v>968</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>22</v>
+        <v>555</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>91038</v>
+        <v>91163</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>811</v>
+        <v>956</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>812</v>
+        <v>969</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>22</v>
+        <v>555</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>91040</v>
+        <v>91023</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>91044</v>
+        <v>91025</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>472</v>
+        <v>923</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>473</v>
+        <v>924</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>516</v>
@@ -8792,13 +8912,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>91045</v>
+        <v>91026</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>474</v>
+        <v>925</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>475</v>
+        <v>926</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>516</v>
@@ -8806,954 +8926,1278 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>91046</v>
+        <v>91032</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>476</v>
+        <v>726</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>477</v>
+        <v>727</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>516</v>
+        <v>660</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>91047</v>
+        <v>91033</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>478</v>
+        <v>728</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>479</v>
+        <v>729</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>516</v>
+        <v>660</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>91055</v>
+        <v>91036</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>864</v>
+        <v>796</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>498</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>91056</v>
+        <v>91037</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>744</v>
+        <v>799</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>498</v>
+        <v>21</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>91057</v>
+        <v>91038</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>498</v>
+        <v>21</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>91058</v>
+        <v>91040</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>813</v>
+        <v>730</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>814</v>
+        <v>731</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>91059</v>
+        <v>91043</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>815</v>
+        <v>927</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>91060</v>
+        <v>91044</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>860</v>
+        <v>465</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>861</v>
+        <v>466</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>91061</v>
+        <v>91045</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>862</v>
+        <v>467</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>863</v>
+        <v>468</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>91068</v>
+        <v>91046</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>747</v>
+        <v>469</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>748</v>
+        <v>470</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>91072</v>
+        <v>91047</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>817</v>
+        <v>471</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>818</v>
+        <v>472</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>91073</v>
+        <v>91055</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>91074</v>
+        <v>91056</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>819</v>
+        <v>732</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>820</v>
+        <v>733</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>599</v>
+        <v>491</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>91075</v>
+        <v>91057</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>856</v>
+        <v>734</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>857</v>
+        <v>735</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>599</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>91076</v>
+        <v>91058</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>91077</v>
+        <v>91059</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>91108</v>
+        <v>91060</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>91109</v>
+        <v>91061</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>775</v>
+        <v>851</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>91110</v>
+        <v>91068</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>839</v>
+        <v>737</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>91111</v>
+        <v>91072</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>91112</v>
+        <v>91073</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>91113</v>
+        <v>91074</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>91114</v>
+        <v>91075</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>91115</v>
+        <v>91076</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>844</v>
+        <v>740</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>91116</v>
+        <v>91077</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>91117</v>
+        <v>91078</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>783</v>
+        <v>929</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>675</v>
+        <v>929</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>91118</v>
+        <v>91079</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>784</v>
+        <v>930</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>515</v>
+        <v>930</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>91119</v>
+        <v>91080</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>785</v>
+        <v>931</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>490</v>
+        <v>932</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>91120</v>
+        <v>91081</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>786</v>
+        <v>933</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>21</v>
+        <v>933</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>91121</v>
+        <v>91082</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>787</v>
+        <v>934</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>480</v>
+        <v>934</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>91122</v>
+        <v>91083</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>787</v>
+        <v>935</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>484</v>
+        <v>935</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>91123</v>
+        <v>91084</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>788</v>
+        <v>936</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>487</v>
+        <v>936</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>91124</v>
+        <v>91085</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>790</v>
+        <v>937</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>487</v>
+        <v>937</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>91125</v>
+        <v>91086</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>752</v>
+        <v>938</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>487</v>
+        <v>938</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>91126</v>
+        <v>91087</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>793</v>
+        <v>939</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>487</v>
+        <v>939</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>91127</v>
+        <v>91088</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>795</v>
+        <v>940</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>487</v>
+        <v>940</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>91128</v>
+        <v>91089</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>797</v>
+        <v>941</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>487</v>
+        <v>941</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>91129</v>
+        <v>91108</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>799</v>
+        <v>862</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>91130</v>
+        <v>91109</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>91131</v>
+        <v>91110</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>802</v>
+        <v>765</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>91132</v>
+        <v>91111</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>803</v>
+        <v>766</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>91135</v>
+        <v>91112</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>754</v>
+        <v>830</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>91136</v>
+        <v>91113</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>866</v>
+        <v>768</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>867</v>
+        <v>831</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>91137</v>
+        <v>91114</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>868</v>
+        <v>769</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>869</v>
+        <v>832</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>91138</v>
+        <v>91115</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>91142</v>
+        <v>91116</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>91143</v>
+        <v>91117</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>759</v>
+        <v>835</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>515</v>
+        <v>664</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>91144</v>
+        <v>91118</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>91152</v>
+        <v>91119</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>763</v>
+        <v>837</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>91153</v>
+        <v>91120</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>515</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>91157</v>
+        <v>91121</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>91158</v>
+        <v>91122</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>563</v>
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>91159</v>
+        <v>91123</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>91165</v>
+        <v>91124</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>91167</v>
+        <v>91125</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>875</v>
+        <v>781</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>675</v>
+        <v>480</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>91169</v>
+        <v>91126</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>825</v>
+        <v>782</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>855</v>
+        <v>783</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>675</v>
+        <v>480</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>91170</v>
+        <v>91127</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>826</v>
+        <v>784</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>675</v>
+        <v>480</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>91192</v>
+        <v>91128</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>91195</v>
+        <v>91129</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>91196</v>
+        <v>91130</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>91197</v>
+        <v>91131</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>770</v>
+        <v>842</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>91198</v>
+        <v>91132</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>876</v>
+        <v>792</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>91211</v>
+        <v>91135</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>836</v>
+        <v>743</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>91212</v>
+        <v>91136</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>739</v>
+        <v>855</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>91221</v>
+        <v>91137</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>91224</v>
+        <v>91138</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>91225</v>
+        <v>91142</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>698</v>
+        <v>793</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
+        <v>91143</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>91144</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>91152</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>91153</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>91157</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>91158</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>91159</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>91165</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>91167</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>91169</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>91170</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>91192</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>91195</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>91196</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>91197</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>91198</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>91211</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>91212</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>91221</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>91224</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>91225</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>91226</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>563</v>
+      <c r="B485" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>91227</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>91228</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>91229</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>91230</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>91231</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>91232</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
   </sheetData>
